--- a/respart/SYSFW-NAVSS-ResAssg.xlsx
+++ b/respart/SYSFW-NAVSS-ResAssg.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11988" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="j721e-evm" sheetId="4" r:id="rId1"/>
+    <sheet name="j721e" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -325,9 +325,6 @@
     <t>RESASG_SUBTYPE_R5FSS1_CORE0_INTR_IRQ_GROUP0_FROM_GPIOMUX_INTRTR0</t>
   </si>
   <si>
-    <t>RESASG_SUBTYPE_R5FSS1_CORE0_INTR_IRQ_GROUP0_FROM_NAVSS1_INTR_ROUTER_0</t>
-  </si>
-  <si>
     <t>Main R5FSS1 core0 IPI interrupt router</t>
   </si>
   <si>
@@ -343,9 +340,6 @@
     <t>RESASG_SUBTYPE_R5FSS1_CORE1_INTR_IRQ_GROUP0_FROM_GPIOMUX_INTRTR0</t>
   </si>
   <si>
-    <t>RESASG_SUBTYPE_R5FSS1_CORE1_INTR_IRQ_GROUP0_FROM_NAVSS1_INTR_ROUTER_0</t>
-  </si>
-  <si>
     <t>Main R5FSS1 core1 IPI interrupt router</t>
   </si>
   <si>
@@ -497,6 +491,12 @@
   </si>
   <si>
     <t>NAVSS interrupt router for R5FSS1 core1</t>
+  </si>
+  <si>
+    <t>RESASG_SUBTYPE_R5FSS1_CORE1_INTR_IRQ_GROUP0_FROM_NAVSS0_INTR_ROUTER_0</t>
+  </si>
+  <si>
+    <t>RESASG_SUBTYPE_R5FSS1_CORE0_INTR_IRQ_GROUP0_FROM_NAVSS0_INTR_ROUTER_0</t>
   </si>
 </sst>
 </file>
@@ -2397,10 +2397,10 @@
   <dimension ref="A1:W85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4663,13 +4663,13 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="D43" s="15">
         <v>28</v>
@@ -4712,13 +4712,13 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D44" s="15">
         <v>256</v>
@@ -4761,13 +4761,13 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="C45" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>102</v>
       </c>
       <c r="D45" s="15">
         <v>16</v>
@@ -4810,13 +4810,13 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="D46" s="15">
         <v>28</v>
@@ -4859,13 +4859,13 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D47" s="15">
         <v>256</v>
@@ -4908,13 +4908,13 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>108</v>
       </c>
       <c r="D48" s="15">
         <v>1</v>
@@ -4957,13 +4957,13 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B49" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="D49" s="15">
         <v>81</v>
@@ -5006,13 +5006,13 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D50" s="15">
         <v>1</v>
@@ -5055,13 +5055,13 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D51" s="15">
         <v>8</v>
@@ -5104,13 +5104,13 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D52" s="15">
         <v>2</v>
@@ -5153,13 +5153,13 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>115</v>
       </c>
       <c r="D53" s="15">
         <v>1</v>
@@ -5202,13 +5202,13 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B54" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>116</v>
       </c>
       <c r="D54" s="15">
         <v>81</v>
@@ -5251,13 +5251,13 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D55" s="15">
         <v>1</v>
@@ -5300,13 +5300,13 @@
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D56" s="15">
         <v>8</v>
@@ -5349,13 +5349,13 @@
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D57" s="15">
         <v>2</v>
@@ -5398,13 +5398,13 @@
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="D58" s="15">
         <v>56</v>
@@ -5449,13 +5449,13 @@
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D59" s="15">
         <v>16</v>
@@ -5498,13 +5498,13 @@
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D60" s="15">
         <v>16</v>
@@ -5545,13 +5545,13 @@
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D61" s="15">
         <v>64</v>
@@ -5594,13 +5594,13 @@
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>129</v>
       </c>
       <c r="D62" s="15">
         <v>64</v>
@@ -5643,13 +5643,13 @@
     </row>
     <row r="63" spans="1:21">
       <c r="A63" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D63" s="15">
         <v>64</v>
@@ -5694,7 +5694,7 @@
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -5757,7 +5757,7 @@
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -5782,10 +5782,10 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>30</v>
@@ -5831,10 +5831,10 @@
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>32</v>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="69" spans="1:21">
       <c r="A69" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -5982,7 +5982,7 @@
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -6034,10 +6034,10 @@
     </row>
     <row r="71" spans="1:21">
       <c r="A71" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>37</v>
@@ -6114,10 +6114,10 @@
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>39</v>
@@ -6268,10 +6268,10 @@
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>55</v>
@@ -6348,10 +6348,10 @@
     </row>
     <row r="76" spans="1:21">
       <c r="A76" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>57</v>
@@ -6428,10 +6428,10 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>59</v>
@@ -6508,10 +6508,10 @@
     </row>
     <row r="78" spans="1:21">
       <c r="A78" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>61</v>
@@ -6588,10 +6588,10 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>68</v>
@@ -6657,10 +6657,10 @@
     </row>
     <row r="80" spans="1:21">
       <c r="A80" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>71</v>
@@ -6731,10 +6731,10 @@
     </row>
     <row r="82" spans="1:21">
       <c r="A82" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>73</v>
@@ -6794,10 +6794,10 @@
     </row>
     <row r="83" spans="1:21">
       <c r="A83" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>66</v>
@@ -6863,10 +6863,10 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>76</v>
@@ -6932,10 +6932,10 @@
     </row>
     <row r="85" spans="1:21">
       <c r="A85" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>78</v>

--- a/respart/SYSFW-NAVSS-ResAssg.xlsx
+++ b/respart/SYSFW-NAVSS-ResAssg.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11988" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11988" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="j721e" sheetId="4" r:id="rId1"/>
+    <sheet name="am6x" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="149">
   <si>
     <t>Resource</t>
   </si>
@@ -223,24 +224,12 @@
     <t>MCU Nav High Capacity RX channel</t>
   </si>
   <si>
-    <t>MCU Nav Total TX channel</t>
-  </si>
-  <si>
-    <t>MCU Nav Total RX channel</t>
-  </si>
-  <si>
     <t>MCU Nav High Capacity Tx ring</t>
   </si>
   <si>
     <t>MCU Nav High Capacity Rx ring</t>
   </si>
   <si>
-    <t>MCU Nav Tx ring</t>
-  </si>
-  <si>
-    <t>MCU Nav Rx ring</t>
-  </si>
-  <si>
     <t>MCU Nav ring monitors</t>
   </si>
   <si>
@@ -379,9 +368,6 @@
     <t>MCU invalid flow OES</t>
   </si>
   <si>
-    <t>MCU Nav invalid flow OES</t>
-  </si>
-  <si>
     <t>Main Nav invalid flow OES</t>
   </si>
   <si>
@@ -407,6 +393,91 @@
   </si>
   <si>
     <t>Resource start</t>
+  </si>
+  <si>
+    <t>AM6_DEV_CMPEVENT_INTRTR0</t>
+  </si>
+  <si>
+    <t>AM6_DEV_MAIN2MCU_LVL_INTRTR0</t>
+  </si>
+  <si>
+    <t>AM6_DEV_MAIN2MCU_PLS_INTRTR0</t>
+  </si>
+  <si>
+    <t>AM6_DEV_GPIOMUX_INTRTR0</t>
+  </si>
+  <si>
+    <t>AM6_DEV_NAVSS0_INTR_ROUTER_0</t>
+  </si>
+  <si>
+    <t>AM6_DEV_NAVSS0_MODSS_INTA0</t>
+  </si>
+  <si>
+    <t>AM6_DEV_NAVSS0_MODSS_INTA1</t>
+  </si>
+  <si>
+    <t>AM6_DEV_NAVSS0_PROXY0</t>
+  </si>
+  <si>
+    <t>AM6_DEV_NAVSS0_RINGACC0</t>
+  </si>
+  <si>
+    <t>AM6_DEV_NAVSS0_UDMAP0</t>
+  </si>
+  <si>
+    <t>AM6_DEV_NAVSS0_UDMASS_INTA0</t>
+  </si>
+  <si>
+    <t>AM6_DEV_MCU_NAVSS0_INTR_ROUTER_0</t>
+  </si>
+  <si>
+    <t>AM6_DEV_MCU_NAVSS0_PROXY0</t>
+  </si>
+  <si>
+    <t>AM6_DEV_MCU_NAVSS0_RINGACC0</t>
+  </si>
+  <si>
+    <t>AM6_DEV_MCU_NAVSS0_UDMAP0</t>
+  </si>
+  <si>
+    <t>AM6_DEV_MCU_NAVSS0_INTR_AGGR_0</t>
+  </si>
+  <si>
+    <t>AM6_DEV_TIMESYNC_INTRTR0</t>
+  </si>
+  <si>
+    <t>AM6_DEV_WKUP_GPIOMUX_INTRTR0</t>
+  </si>
+  <si>
+    <t>MCU Nav Ring Error OES</t>
+  </si>
+  <si>
+    <t>MCU Nav Normal Capacity Rx ring</t>
+  </si>
+  <si>
+    <t>MCU Nav Normal Capacity Tx ring</t>
+  </si>
+  <si>
+    <t>MCU Nav Normal Capacity RX channels</t>
+  </si>
+  <si>
+    <t>MCU Nav Normal Capacity TX channels</t>
+  </si>
+  <si>
+    <t>HOST_ID_A53_2
+(Uboot/ VM1/RTOS )</t>
+  </si>
+  <si>
+    <t>HOST_ID_A53_3
+(Linux VM2 )</t>
+  </si>
+  <si>
+    <t>HOST_ID_R5_0
+(MCUSW)</t>
+  </si>
+  <si>
+    <t>HOST_ID_R5_2
+(MCUSW)</t>
   </si>
 </sst>
 </file>
@@ -592,7 +663,721 @@
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="92">
+  <dxfs count="176">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1713,11 +2498,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1744,10 +2529,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>3</v>
@@ -1786,12 +2571,12 @@
         <v>14</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>43</v>
@@ -1825,7 +2610,7 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>45</v>
@@ -1859,7 +2644,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>46</v>
@@ -1891,7 +2676,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>47</v>
@@ -1927,7 +2712,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>48</v>
@@ -1963,7 +2748,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>49</v>
@@ -1995,7 +2780,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>50</v>
@@ -2031,7 +2816,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>51</v>
@@ -2067,7 +2852,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>52</v>
@@ -2099,7 +2884,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>53</v>
@@ -2131,7 +2916,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>56</v>
@@ -2163,7 +2948,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>56</v>
@@ -2195,7 +2980,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>57</v>
@@ -2227,7 +3012,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>57</v>
@@ -2259,7 +3044,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>36</v>
@@ -2309,7 +3094,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>36</v>
@@ -2363,7 +3148,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>33</v>
@@ -2417,7 +3202,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>23</v>
@@ -2449,7 +3234,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>23</v>
@@ -2503,7 +3288,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>23</v>
@@ -2557,7 +3342,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>23</v>
@@ -2611,7 +3396,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>23</v>
@@ -2651,7 +3436,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>23</v>
@@ -2689,7 +3474,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>23</v>
@@ -2725,7 +3510,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>23</v>
@@ -2763,7 +3548,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>23</v>
@@ -2799,7 +3584,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>23</v>
@@ -2831,7 +3616,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>23</v>
@@ -2885,7 +3670,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>15</v>
@@ -2925,7 +3710,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>15</v>
@@ -2957,7 +3742,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>15</v>
@@ -2989,7 +3774,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>15</v>
@@ -3021,7 +3806,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>15</v>
@@ -3075,7 +3860,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>15</v>
@@ -3113,7 +3898,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>15</v>
@@ -3149,7 +3934,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>15</v>
@@ -3203,7 +3988,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>15</v>
@@ -3243,7 +4028,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>15</v>
@@ -3281,7 +4066,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>15</v>
@@ -3317,7 +4102,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -3353,7 +4138,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>54</v>
@@ -3387,7 +4172,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>54</v>
@@ -3421,7 +4206,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>54</v>
@@ -3455,7 +4240,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>54</v>
@@ -3491,7 +4276,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>54</v>
@@ -3525,12 +4310,12 @@
         <v>0</v>
       </c>
       <c r="R46" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>54</v>
@@ -3566,12 +4351,12 @@
         <v>104</v>
       </c>
       <c r="R47" s="11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>42</v>
@@ -3625,7 +4410,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>42</v>
@@ -3679,7 +4464,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>41</v>
@@ -3733,7 +4518,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>40</v>
@@ -3765,7 +4550,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>40</v>
@@ -3819,7 +4604,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>40</v>
@@ -3873,7 +4658,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>40</v>
@@ -3927,7 +4712,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>40</v>
@@ -3961,7 +4746,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>40</v>
@@ -3995,7 +4780,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>40</v>
@@ -4027,7 +4812,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>40</v>
@@ -4081,7 +4866,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>39</v>
@@ -4129,7 +4914,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>39</v>
@@ -4161,7 +4946,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>39</v>
@@ -4193,7 +4978,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>39</v>
@@ -4225,7 +5010,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>39</v>
@@ -4313,7 +5098,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>39</v>
@@ -4401,7 +5186,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>55</v>
@@ -4435,7 +5220,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>55</v>
@@ -4469,324 +5254,2258 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Q26">
-    <cfRule type="cellIs" dxfId="91" priority="223" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="224" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="225" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="226" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="175" priority="223" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="224" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="225" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="226" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q29">
-    <cfRule type="cellIs" dxfId="87" priority="219" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="220" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="221" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="222" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="219" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="220" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="221" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="222" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30">
-    <cfRule type="cellIs" dxfId="83" priority="215" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="216" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="217" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="218" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="167" priority="215" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="216" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="217" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="218" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q50">
-    <cfRule type="cellIs" dxfId="79" priority="67" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="68" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="69" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="163" priority="67" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="68" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="69" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="70" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q44">
-    <cfRule type="cellIs" dxfId="75" priority="51" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="52" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="53" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="51" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="52" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="53" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q45">
-    <cfRule type="cellIs" dxfId="71" priority="55" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="56" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="57" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="55" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="56" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="57" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="58" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q47">
-    <cfRule type="cellIs" dxfId="67" priority="59" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="60" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="61" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="59" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="60" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="61" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="62" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q49">
-    <cfRule type="cellIs" dxfId="63" priority="63" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="64" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="65" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="63" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="64" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="65" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="66" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q43">
-    <cfRule type="cellIs" dxfId="59" priority="47" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="48" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="49" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="47" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="48" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="49" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q42">
-    <cfRule type="cellIs" dxfId="55" priority="43" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="44" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="45" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="43" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="44" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="45" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q65">
-    <cfRule type="cellIs" dxfId="51" priority="211" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="212" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="213" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="214" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="211" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="212" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="213" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="214" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q66">
-    <cfRule type="cellIs" dxfId="47" priority="207" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="208" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="209" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="210" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="207" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="208" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="209" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="210" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q68">
-    <cfRule type="cellIs" dxfId="43" priority="280" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="281" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="282" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="283" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="280" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="281" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="282" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="283" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17 Q28 Q31:Q33">
-    <cfRule type="cellIs" dxfId="39" priority="227" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="228" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="229" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="230" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="227" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="228" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="229" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="230" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q39">
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="40" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="41" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="39" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="40" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="41" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q38">
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="36" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="37" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="35" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="36" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="37" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q37">
-    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="33" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="31" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="33" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q36">
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="28" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="27" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="28" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="29" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q35">
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="24" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="25" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q46">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="16" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q40">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="12" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q41">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="8" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q48">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.21875" customWidth="1"/>
+    <col min="2" max="2" width="38.21875" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="45.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="8.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="2" customWidth="1"/>
+    <col min="6" max="9" width="8.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="47" bestFit="1" customWidth="1"/>
+    <col min="12" max="1005" width="8.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6">
+        <v>8</v>
+      </c>
+      <c r="I2" s="6">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J33" si="0">D2-SUM(F2:I2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>64</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="6">
+        <v>32</v>
+      </c>
+      <c r="I3" s="6">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>48</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="6">
+        <v>24</v>
+      </c>
+      <c r="I4" s="6">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6">
+        <v>12</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>136</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6" s="6">
+        <v>64</v>
+      </c>
+      <c r="G6" s="6">
+        <v>40</v>
+      </c>
+      <c r="H6" s="6">
+        <v>4</v>
+      </c>
+      <c r="I6" s="6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>64</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>1024</v>
+      </c>
+      <c r="E8">
+        <v>20480</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>1024</v>
+      </c>
+      <c r="E10">
+        <v>22528</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>63</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6">
+        <v>4</v>
+      </c>
+      <c r="H11" s="6">
+        <v>16</v>
+      </c>
+      <c r="I11" s="6">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>464</v>
+      </c>
+      <c r="E13">
+        <v>304</v>
+      </c>
+      <c r="F13" s="6">
+        <v>100</v>
+      </c>
+      <c r="G13" s="6">
+        <v>50</v>
+      </c>
+      <c r="H13" s="6">
+        <v>100</v>
+      </c>
+      <c r="I13" s="6">
+        <v>100</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>142</v>
+      </c>
+      <c r="E14">
+        <v>160</v>
+      </c>
+      <c r="F14" s="6">
+        <v>64</v>
+      </c>
+      <c r="G14" s="6">
+        <v>32</v>
+      </c>
+      <c r="H14" s="6">
+        <v>20</v>
+      </c>
+      <c r="I14" s="6">
+        <v>16</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>112</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15" s="6">
+        <v>50</v>
+      </c>
+      <c r="G15" s="6">
+        <v>16</v>
+      </c>
+      <c r="H15" s="6">
+        <v>20</v>
+      </c>
+      <c r="I15" s="6">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>32</v>
+      </c>
+      <c r="E16">
+        <v>120</v>
+      </c>
+      <c r="F16" s="6">
+        <v>4</v>
+      </c>
+      <c r="G16" s="6">
+        <v>4</v>
+      </c>
+      <c r="H16" s="6">
+        <v>12</v>
+      </c>
+      <c r="I16" s="6">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>153</v>
+      </c>
+      <c r="F17" s="6">
+        <v>3</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
+        <v>2</v>
+      </c>
+      <c r="I17" s="6">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6">
+        <v>2</v>
+      </c>
+      <c r="I18" s="6">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19">
+        <v>4096</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="1">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>32</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>8</v>
+      </c>
+      <c r="G20" s="6">
+        <v>4</v>
+      </c>
+      <c r="H20" s="6">
+        <v>8</v>
+      </c>
+      <c r="I20" s="6">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21">
+        <v>150</v>
+      </c>
+      <c r="E21">
+        <v>150</v>
+      </c>
+      <c r="F21" s="6">
+        <v>64</v>
+      </c>
+      <c r="G21" s="6">
+        <v>8</v>
+      </c>
+      <c r="H21" s="6">
+        <v>64</v>
+      </c>
+      <c r="I21" s="6">
+        <v>8</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23">
+        <v>1024</v>
+      </c>
+      <c r="E23">
+        <v>49152</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="1">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>142</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25" s="6">
+        <v>64</v>
+      </c>
+      <c r="G25" s="6">
+        <v>32</v>
+      </c>
+      <c r="H25" s="6">
+        <v>20</v>
+      </c>
+      <c r="I25" s="6">
+        <v>16</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6">
+        <v>2</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6">
+        <v>2</v>
+      </c>
+      <c r="I26" s="6">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>112</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27" s="6">
+        <v>50</v>
+      </c>
+      <c r="G27" s="6">
+        <v>16</v>
+      </c>
+      <c r="H27" s="6">
+        <v>20</v>
+      </c>
+      <c r="I27" s="6">
+        <v>16</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>32</v>
+      </c>
+      <c r="E28">
+        <v>120</v>
+      </c>
+      <c r="F28" s="6">
+        <v>4</v>
+      </c>
+      <c r="G28" s="6">
+        <v>4</v>
+      </c>
+      <c r="H28" s="6">
+        <v>12</v>
+      </c>
+      <c r="I28" s="6">
+        <v>12</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>3</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6">
+        <v>2</v>
+      </c>
+      <c r="I29" s="6">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <v>240</v>
+      </c>
+      <c r="E30">
+        <v>16</v>
+      </c>
+      <c r="F30" s="6">
+        <v>80</v>
+      </c>
+      <c r="G30" s="6">
+        <v>30</v>
+      </c>
+      <c r="H30" s="6">
+        <v>50</v>
+      </c>
+      <c r="I30" s="6">
+        <v>50</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31">
+        <v>4592</v>
+      </c>
+      <c r="E31">
+        <v>16</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1024</v>
+      </c>
+      <c r="G31" s="6">
+        <v>512</v>
+      </c>
+      <c r="H31" s="6">
+        <v>512</v>
+      </c>
+      <c r="I31" s="6">
+        <v>512</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32">
+        <v>28</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="6">
+        <v>28</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33">
+        <v>28</v>
+      </c>
+      <c r="E33">
+        <v>36</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="6">
+        <v>28</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34">
+        <v>64</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>12</v>
+      </c>
+      <c r="G34" s="6">
+        <v>4</v>
+      </c>
+      <c r="H34" s="6">
+        <v>24</v>
+      </c>
+      <c r="I34" s="6">
+        <v>24</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" ref="J34:J54" si="1">D34-SUM(F34:I34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36">
+        <v>160</v>
+      </c>
+      <c r="E36">
+        <v>96</v>
+      </c>
+      <c r="F36" s="6">
+        <v>32</v>
+      </c>
+      <c r="G36" s="6">
+        <v>8</v>
+      </c>
+      <c r="H36" s="6">
+        <v>60</v>
+      </c>
+      <c r="I36" s="6">
+        <v>60</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37">
+        <v>46</v>
+      </c>
+      <c r="E37">
+        <v>50</v>
+      </c>
+      <c r="F37" s="6">
+        <v>14</v>
+      </c>
+      <c r="G37" s="6">
+        <v>4</v>
+      </c>
+      <c r="H37" s="6">
+        <v>14</v>
+      </c>
+      <c r="I37" s="6">
+        <v>14</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38">
+        <v>46</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" s="6">
+        <v>14</v>
+      </c>
+      <c r="G38" s="6">
+        <v>4</v>
+      </c>
+      <c r="H38" s="6">
+        <v>14</v>
+      </c>
+      <c r="I38" s="6">
+        <v>14</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>48</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6">
+        <v>2</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6">
+        <v>2</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41">
+        <v>4096</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="1">
+        <f t="shared" si="1"/>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42">
+        <v>32</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6">
+        <v>8</v>
+      </c>
+      <c r="G42" s="6">
+        <v>4</v>
+      </c>
+      <c r="H42" s="6">
+        <v>8</v>
+      </c>
+      <c r="I42" s="6">
+        <v>8</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43">
+        <v>48</v>
+      </c>
+      <c r="E43">
+        <v>48</v>
+      </c>
+      <c r="F43" s="6">
+        <v>16</v>
+      </c>
+      <c r="G43" s="6">
+        <v>4</v>
+      </c>
+      <c r="H43" s="6">
+        <v>16</v>
+      </c>
+      <c r="I43" s="6">
+        <v>8</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45">
+        <v>256</v>
+      </c>
+      <c r="E45">
+        <v>56320</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="1">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K46" s="11"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47">
+        <v>46</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" s="6">
+        <v>14</v>
+      </c>
+      <c r="G47" s="6">
+        <v>4</v>
+      </c>
+      <c r="H47" s="6">
+        <v>14</v>
+      </c>
+      <c r="I47" s="6">
+        <v>14</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="11"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6">
+        <v>2</v>
+      </c>
+      <c r="I48" s="6"/>
+      <c r="J48" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <v>46</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" s="6">
+        <v>14</v>
+      </c>
+      <c r="G49" s="6">
+        <v>4</v>
+      </c>
+      <c r="H49" s="6">
+        <v>14</v>
+      </c>
+      <c r="I49" s="6">
+        <v>14</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6">
+        <v>2</v>
+      </c>
+      <c r="I50" s="6"/>
+      <c r="J50" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51">
+        <v>248</v>
+      </c>
+      <c r="E51">
+        <v>8</v>
+      </c>
+      <c r="F51" s="6">
+        <v>80</v>
+      </c>
+      <c r="G51" s="6">
+        <v>30</v>
+      </c>
+      <c r="H51" s="6">
+        <v>50</v>
+      </c>
+      <c r="I51" s="6">
+        <v>50</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52">
+        <v>1528</v>
+      </c>
+      <c r="E52">
+        <v>16392</v>
+      </c>
+      <c r="F52" s="6">
+        <v>512</v>
+      </c>
+      <c r="G52" s="6">
+        <v>128</v>
+      </c>
+      <c r="H52" s="6">
+        <v>256</v>
+      </c>
+      <c r="I52" s="6">
+        <v>256</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="1"/>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53">
+        <v>40</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54">
+        <v>16</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6">
+        <v>4</v>
+      </c>
+      <c r="G54" s="6">
+        <v>4</v>
+      </c>
+      <c r="H54" s="6">
+        <v>4</v>
+      </c>
+      <c r="I54" s="6">
+        <v>4</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J26">
+    <cfRule type="cellIs" dxfId="83" priority="81" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="82" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="84" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="78" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="80" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="76" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="cellIs" dxfId="71" priority="61" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="62" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="63" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="64" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
+    <cfRule type="cellIs" dxfId="67" priority="45" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="46" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="47" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="48" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
+    <cfRule type="cellIs" dxfId="63" priority="49" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="50" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="51" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="52" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="cellIs" dxfId="59" priority="53" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="54" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="56" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
+    <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="58" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="60" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
+    <cfRule type="cellIs" dxfId="51" priority="41" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="42" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="44" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42">
+    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="38" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="40" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J54">
+    <cfRule type="cellIs" dxfId="43" priority="89" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="90" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="91" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="92" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17 J28 J31:J33">
+    <cfRule type="cellIs" dxfId="39" priority="85" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="86" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="87" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="88" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/respart/SYSFW-NAVSS-ResAssg.xlsx
+++ b/respart/SYSFW-NAVSS-ResAssg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11988" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11988" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="j721e" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="153">
   <si>
     <t>Resource</t>
   </si>
@@ -365,9 +365,6 @@
     <t>MCU Nav IA global events</t>
   </si>
   <si>
-    <t>MCU invalid flow OES</t>
-  </si>
-  <si>
     <t>Main Nav invalid flow OES</t>
   </si>
   <si>
@@ -478,13 +475,28 @@
   <si>
     <t>HOST_ID_R5_2
 (MCUSW)</t>
+  </si>
+  <si>
+    <t>MCU Nav GP Ring / Free Ring</t>
+  </si>
+  <si>
+    <t>MCU Nav invalid flow OES</t>
+  </si>
+  <si>
+    <t>MCU Nav Normal Capacity RX channel</t>
+  </si>
+  <si>
+    <t>MCU Nav Normal Capacity TX channel</t>
+  </si>
+  <si>
+    <t>Same as UDMA channel allocation, DO NOT modify here</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -536,6 +548,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -574,7 +593,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -610,6 +629,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -618,7 +646,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -653,6 +681,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2498,11 +2529,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -2529,10 +2560,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>3</v>
@@ -2571,7 +2602,7 @@
         <v>14</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -3082,17 +3113,17 @@
         <v>12</v>
       </c>
       <c r="O16" s="6">
+        <v>28</v>
+      </c>
+      <c r="P16" s="6">
         <v>8</v>
       </c>
-      <c r="P16" s="6">
-        <v>24</v>
-      </c>
       <c r="Q16" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>101</v>
       </c>
@@ -3136,17 +3167,17 @@
         <v>256</v>
       </c>
       <c r="O17" s="6">
+        <v>512</v>
+      </c>
+      <c r="P17" s="6">
         <v>256</v>
       </c>
-      <c r="P17" s="6">
-        <v>512</v>
-      </c>
       <c r="Q17" s="1">
         <f t="shared" si="1"/>
         <v>922</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>84</v>
       </c>
@@ -3190,17 +3221,17 @@
         <v>4</v>
       </c>
       <c r="O18" s="6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P18" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>102</v>
       </c>
@@ -3232,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>103</v>
       </c>
@@ -3276,17 +3307,17 @@
         <v>12</v>
       </c>
       <c r="O20" s="6">
+        <v>182</v>
+      </c>
+      <c r="P20" s="6">
         <v>40</v>
       </c>
-      <c r="P20" s="6">
-        <v>182</v>
-      </c>
       <c r="Q20" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>82</v>
       </c>
@@ -3302,45 +3333,59 @@
       <c r="E21" s="5">
         <v>316</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="14">
+        <f>F34</f>
         <v>36</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="14">
+        <f t="shared" ref="G21:P21" si="2">G34</f>
         <v>20</v>
       </c>
-      <c r="H21" s="6">
-        <v>2</v>
-      </c>
-      <c r="I21" s="6">
-        <v>2</v>
-      </c>
-      <c r="J21" s="6">
+      <c r="H21" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J21" s="14">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="14">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="14">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="14">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="14">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="O21" s="6">
-        <v>7</v>
-      </c>
-      <c r="P21" s="6">
-        <v>15</v>
+      <c r="O21" s="14">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="P21" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>81</v>
       </c>
@@ -3356,45 +3401,59 @@
       <c r="E22" s="5">
         <v>16</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="14">
+        <f>F37</f>
         <v>36</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="14">
+        <f t="shared" ref="G22:P22" si="3">G37</f>
         <v>20</v>
       </c>
-      <c r="H22" s="6">
-        <v>2</v>
-      </c>
-      <c r="I22" s="6">
-        <v>2</v>
-      </c>
-      <c r="J22" s="6">
+      <c r="H22" s="14">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="14">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="14">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="14">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="14">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="O22" s="6">
-        <v>7</v>
-      </c>
-      <c r="P22" s="6">
-        <v>8</v>
+      <c r="O22" s="14">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="P22" s="14">
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>104</v>
       </c>
@@ -3410,31 +3469,59 @@
       <c r="E23" s="5">
         <v>140</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6">
+      <c r="F23" s="14">
+        <f t="shared" ref="F23:P23" si="4">F38</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="14">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="14">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="14">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6">
+      <c r="O23" s="14">
+        <f>O38</f>
         <v>132</v>
       </c>
+      <c r="P23" s="14">
+        <f t="shared" ref="P23" si="5">P38</f>
+        <v>0</v>
+      </c>
       <c r="Q23" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>80</v>
       </c>
@@ -3450,29 +3537,59 @@
       <c r="E24" s="5">
         <v>304</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="14">
+        <f>F35</f>
         <v>4</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6">
-        <v>2</v>
-      </c>
-      <c r="P24" s="6">
-        <v>4</v>
+      <c r="G24" s="14">
+        <f t="shared" ref="G24:P24" si="6">G35</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="14">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="P24" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>78</v>
       </c>
@@ -3488,27 +3605,59 @@
       <c r="E25" s="5">
         <v>300</v>
       </c>
-      <c r="F25" s="6">
-        <v>2</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6">
-        <v>2</v>
+      <c r="F25" s="14">
+        <f>F36</f>
+        <v>2</v>
+      </c>
+      <c r="G25" s="14">
+        <f t="shared" ref="G25:P25" si="7">G36</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="14">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P25" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q25" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R25" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>79</v>
       </c>
@@ -3524,29 +3673,59 @@
       <c r="E26" s="5">
         <v>4</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="14">
+        <f>F39</f>
         <v>4</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6">
-        <v>2</v>
-      </c>
-      <c r="P26" s="6">
-        <v>4</v>
+      <c r="G26" s="14">
+        <f t="shared" ref="G26:P26" si="8">G39</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="14">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="P26" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Q26" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>77</v>
       </c>
@@ -3562,27 +3741,59 @@
       <c r="E27" s="5">
         <v>0</v>
       </c>
-      <c r="F27" s="6">
-        <v>2</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6">
-        <v>2</v>
+      <c r="F27" s="14">
+        <f>F40</f>
+        <v>2</v>
+      </c>
+      <c r="G27" s="14">
+        <f t="shared" ref="G27:P27" si="9">G40</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="14">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="P27" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="Q27" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R27" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>105</v>
       </c>
@@ -3614,7 +3825,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>83</v>
       </c>
@@ -3668,7 +3879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>85</v>
       </c>
@@ -3698,19 +3909,19 @@
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="P30" s="6">
         <v>8</v>
       </c>
       <c r="Q30" s="1">
         <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>15</v>
@@ -3740,7 +3951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>107</v>
       </c>
@@ -3848,10 +4059,10 @@
         <v>8</v>
       </c>
       <c r="O34" s="6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="P34" s="6">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="1">
         <f t="shared" si="1"/>
@@ -3886,11 +4097,9 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6">
-        <v>2</v>
-      </c>
-      <c r="P35" s="6">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="P35" s="6"/>
       <c r="Q35" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -3923,10 +4132,10 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6">
-        <v>2</v>
-      </c>
+      <c r="O36" s="6">
+        <v>2</v>
+      </c>
+      <c r="P36" s="6"/>
       <c r="Q36" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3976,14 +4185,14 @@
         <v>8</v>
       </c>
       <c r="O37" s="6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P37" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q37" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
@@ -4017,10 +4226,10 @@
       <c r="N38" s="6">
         <v>6</v>
       </c>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6">
+      <c r="O38" s="6">
         <v>132</v>
       </c>
+      <c r="P38" s="6"/>
       <c r="Q38" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4054,11 +4263,9 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6">
-        <v>2</v>
-      </c>
-      <c r="P39" s="6">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="P39" s="6"/>
       <c r="Q39" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4091,10 +4298,10 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6">
-        <v>2</v>
-      </c>
+      <c r="O40" s="6">
+        <v>2</v>
+      </c>
+      <c r="P40" s="6"/>
       <c r="Q40" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4310,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="R46" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
@@ -4351,7 +4558,7 @@
         <v>104</v>
       </c>
       <c r="R47" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
@@ -4398,17 +4605,17 @@
         <v>8</v>
       </c>
       <c r="O48" s="6">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P48" s="6">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q48" s="1">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>111</v>
       </c>
@@ -4462,7 +4669,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>68</v>
       </c>
@@ -4506,19 +4713,19 @@
         <v>4</v>
       </c>
       <c r="O50" s="6">
+        <v>16</v>
+      </c>
+      <c r="P50" s="6">
         <v>4</v>
       </c>
-      <c r="P50" s="6">
-        <v>16</v>
-      </c>
       <c r="Q50" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>40</v>
@@ -4548,9 +4755,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>40</v>
@@ -4601,10 +4808,11 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R52" s="11"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>40</v>
@@ -4618,47 +4826,51 @@
       <c r="E53" s="5">
         <v>50</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="14">
+        <f>F63</f>
         <v>12</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="14">
         <v>6</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="14">
         <v>5</v>
       </c>
-      <c r="I53" s="6">
-        <v>2</v>
-      </c>
-      <c r="J53" s="6">
-        <v>2</v>
-      </c>
-      <c r="K53" s="6">
-        <v>2</v>
-      </c>
-      <c r="L53" s="6">
-        <v>2</v>
-      </c>
-      <c r="M53" s="6">
-        <v>2</v>
-      </c>
-      <c r="N53" s="6">
-        <v>2</v>
-      </c>
-      <c r="O53" s="6">
+      <c r="I53" s="14">
+        <v>2</v>
+      </c>
+      <c r="J53" s="14">
+        <v>2</v>
+      </c>
+      <c r="K53" s="14">
+        <v>2</v>
+      </c>
+      <c r="L53" s="14">
+        <v>2</v>
+      </c>
+      <c r="M53" s="14">
+        <v>2</v>
+      </c>
+      <c r="N53" s="14">
+        <v>2</v>
+      </c>
+      <c r="O53" s="14">
         <v>3</v>
       </c>
-      <c r="P53" s="6">
+      <c r="P53" s="14">
         <v>2</v>
       </c>
       <c r="Q53" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R53" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>40</v>
@@ -4672,45 +4884,49 @@
       <c r="E54" s="5">
         <v>2</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="14">
+        <f>F65</f>
         <v>12</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="14">
         <v>6</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="14">
         <v>5</v>
       </c>
-      <c r="I54" s="6">
-        <v>2</v>
-      </c>
-      <c r="J54" s="6">
-        <v>2</v>
-      </c>
-      <c r="K54" s="6">
-        <v>2</v>
-      </c>
-      <c r="L54" s="6">
-        <v>2</v>
-      </c>
-      <c r="M54" s="6">
-        <v>2</v>
-      </c>
-      <c r="N54" s="6">
-        <v>2</v>
-      </c>
-      <c r="O54" s="6">
+      <c r="I54" s="14">
+        <v>2</v>
+      </c>
+      <c r="J54" s="14">
+        <v>2</v>
+      </c>
+      <c r="K54" s="14">
+        <v>2</v>
+      </c>
+      <c r="L54" s="14">
+        <v>2</v>
+      </c>
+      <c r="M54" s="14">
+        <v>2</v>
+      </c>
+      <c r="N54" s="14">
+        <v>2</v>
+      </c>
+      <c r="O54" s="14">
         <v>3</v>
       </c>
-      <c r="P54" s="6">
+      <c r="P54" s="14">
         <v>2</v>
       </c>
       <c r="Q54" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R54" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>66</v>
       </c>
@@ -4726,25 +4942,28 @@
       <c r="E55" s="5">
         <v>48</v>
       </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6">
-        <v>2</v>
-      </c>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14">
+        <v>2</v>
+      </c>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
       <c r="Q55" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R55" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>65</v>
       </c>
@@ -4760,25 +4979,28 @@
       <c r="E56" s="5">
         <v>0</v>
       </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6">
-        <v>2</v>
-      </c>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14">
+        <v>2</v>
+      </c>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
       <c r="Q56" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R56" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>105</v>
       </c>
@@ -4810,7 +5032,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>67</v>
       </c>
@@ -4864,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>69</v>
       </c>
@@ -4912,9 +5134,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>39</v>
@@ -4944,9 +5166,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>39</v>
@@ -4976,9 +5198,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>39</v>
@@ -5008,9 +5230,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>39</v>
@@ -5062,7 +5284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>64</v>
       </c>
@@ -5098,7 +5320,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>39</v>
@@ -5186,7 +5408,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>55</v>
@@ -5220,7 +5442,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>55</v>
@@ -5248,7 +5470,7 @@
       <c r="O68" s="10"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="1">
-        <f t="shared" ref="Q68" si="2">D68-SUM(F68:P68)</f>
+        <f t="shared" ref="Q68" si="10">D68-SUM(F68:P68)</f>
         <v>0</v>
       </c>
     </row>
@@ -5584,11 +5806,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -5615,28 +5837,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="F1" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -5644,7 +5866,7 @@
         <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -5677,7 +5899,7 @@
         <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -5706,7 +5928,7 @@
         <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -5735,7 +5957,7 @@
         <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
@@ -5764,7 +5986,7 @@
         <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
@@ -5797,7 +6019,7 @@
         <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -5822,7 +6044,7 @@
         <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
@@ -5847,7 +6069,7 @@
         <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -5872,7 +6094,7 @@
         <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -5897,7 +6119,7 @@
         <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -5930,7 +6152,7 @@
         <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
@@ -5955,7 +6177,7 @@
         <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
@@ -5988,7 +6210,7 @@
         <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -6021,7 +6243,7 @@
         <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -6054,7 +6276,7 @@
         <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -6087,7 +6309,7 @@
         <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -6118,7 +6340,7 @@
         <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -6149,7 +6371,7 @@
         <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
         <v>59</v>
@@ -6174,7 +6396,7 @@
         <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
@@ -6207,7 +6429,7 @@
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
@@ -6237,10 +6459,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" t="s">
         <v>60</v>
@@ -6265,7 +6487,7 @@
         <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s">
         <v>61</v>
@@ -6290,7 +6512,7 @@
         <v>106</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
         <v>62</v>
@@ -6315,7 +6537,7 @@
         <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
@@ -6348,7 +6570,7 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
@@ -6379,7 +6601,7 @@
         <v>109</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
@@ -6412,7 +6634,7 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
         <v>22</v>
@@ -6445,7 +6667,7 @@
         <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -6476,7 +6698,7 @@
         <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -6509,7 +6731,7 @@
         <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -6539,10 +6761,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
@@ -6566,10 +6788,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
@@ -6596,7 +6818,7 @@
         <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
@@ -6626,10 +6848,10 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
         <v>58</v>
@@ -6654,7 +6876,7 @@
         <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
         <v>31</v>
@@ -6684,10 +6906,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
         <v>29</v>
@@ -6717,10 +6939,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -6753,7 +6975,7 @@
         <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -6780,7 +7002,7 @@
         <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
         <v>26</v>
@@ -6807,7 +7029,7 @@
         <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C41" t="s">
         <v>59</v>
@@ -6832,7 +7054,7 @@
         <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
         <v>32</v>
@@ -6865,7 +7087,7 @@
         <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
         <v>35</v>
@@ -6895,10 +7117,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
         <v>60</v>
@@ -6920,10 +7142,10 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
         <v>61</v>
@@ -6945,10 +7167,10 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C46" t="s">
         <v>62</v>
@@ -6971,10 +7193,10 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
         <v>21</v>
@@ -7008,7 +7230,7 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C48" t="s">
         <v>19</v>
@@ -7032,10 +7254,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
         <v>20</v>
@@ -7068,7 +7290,7 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -7095,7 +7317,7 @@
         <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
         <v>37</v>
@@ -7128,7 +7350,7 @@
         <v>111</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C52" t="s">
         <v>38</v>
@@ -7161,7 +7383,7 @@
         <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C53" t="s">
         <v>44</v>
@@ -7186,7 +7408,7 @@
         <v>96</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
         <v>44</v>

--- a/respart/SYSFW-NAVSS-ResAssg.xlsx
+++ b/respart/SYSFW-NAVSS-ResAssg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11988" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11988" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="j721e" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="154">
   <si>
     <t>Resource</t>
   </si>
@@ -490,6 +490,10 @@
   </si>
   <si>
     <t>Same as UDMA channel allocation, DO NOT modify here</t>
+  </si>
+  <si>
+    <t>Ideally 72 for R50_0 and 8 for R50_1
+For flow sharing purpose, mark them as host_id_all</t>
   </si>
 </sst>
 </file>
@@ -646,7 +650,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -685,6 +689,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2529,11 +2536,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3470,7 +3477,7 @@
         <v>140</v>
       </c>
       <c r="F23" s="14">
-        <f t="shared" ref="F23:P23" si="4">F38</f>
+        <f t="shared" ref="F23:N23" si="4">F38</f>
         <v>0</v>
       </c>
       <c r="G23" s="14">
@@ -3879,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>85</v>
       </c>
@@ -3908,15 +3915,14 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-      <c r="O30" s="6">
-        <v>72</v>
-      </c>
-      <c r="P30" s="6">
-        <v>8</v>
-      </c>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
       <c r="Q30" s="1">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>128</v>
+      </c>
+      <c r="R30" s="15" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
@@ -5806,19 +5812,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.21875" customWidth="1"/>
-    <col min="2" max="2" width="38.21875" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="45.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="8.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="45.33203125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="8.6640625" style="2" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="11.77734375" style="2" customWidth="1"/>
     <col min="6" max="9" width="8.77734375" customWidth="1"/>
     <col min="10" max="10" width="12.109375" customWidth="1"/>
@@ -6221,16 +6227,20 @@
       <c r="E14">
         <v>160</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="14">
+        <f>F25</f>
         <v>64</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="14">
+        <f t="shared" ref="G14:I14" si="1">G25</f>
         <v>32</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="14">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="14">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="J14" s="1">
@@ -6254,16 +6264,20 @@
       <c r="E15">
         <v>8</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="14">
+        <f>F27</f>
         <v>50</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="14">
+        <f>G27</f>
         <v>16</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="14">
+        <f>H27</f>
         <v>20</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="14">
+        <f>I27</f>
         <v>16</v>
       </c>
       <c r="J15" s="1">
@@ -6287,16 +6301,20 @@
       <c r="E16">
         <v>120</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="14">
+        <f>F28</f>
         <v>4</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="14">
+        <f>G28</f>
         <v>4</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="14">
+        <f>H28</f>
         <v>12</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="14">
+        <f>I28</f>
         <v>12</v>
       </c>
       <c r="J16" s="1">
@@ -6320,19 +6338,25 @@
       <c r="E17">
         <v>153</v>
       </c>
-      <c r="F17" s="6">
-        <v>3</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6">
-        <v>2</v>
-      </c>
-      <c r="I17" s="6">
+      <c r="F17" s="14">
+        <f>F26</f>
+        <v>2</v>
+      </c>
+      <c r="G17" s="14">
+        <f>G26</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <f>H26</f>
+        <v>2</v>
+      </c>
+      <c r="I17" s="14">
+        <f>I26</f>
         <v>2</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -6351,14 +6375,20 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="14">
+        <f>F29</f>
         <v>3</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6">
-        <v>2</v>
-      </c>
-      <c r="I18" s="6">
+      <c r="G18" s="14">
+        <f>G29</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="14">
+        <f>H29</f>
+        <v>2</v>
+      </c>
+      <c r="I18" s="14">
+        <f>I29</f>
         <v>2</v>
       </c>
       <c r="J18" s="1">
@@ -6842,7 +6872,7 @@
         <v>24</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" ref="J34:J54" si="1">D34-SUM(F34:I34)</f>
+        <f t="shared" ref="J34:J54" si="2">D34-SUM(F34:I34)</f>
         <v>0</v>
       </c>
     </row>
@@ -6867,7 +6897,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6900,7 +6930,7 @@
         <v>60</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6920,20 +6950,24 @@
       <c r="E37">
         <v>50</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="14">
+        <f>F47</f>
         <v>14</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="14">
+        <f>G47</f>
         <v>4</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="14">
+        <f>H47</f>
         <v>14</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="14">
+        <f>I47</f>
         <v>14</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6953,20 +6987,24 @@
       <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="14">
+        <f>F49</f>
         <v>14</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="14">
+        <f>G49</f>
         <v>4</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="14">
+        <f>H49</f>
         <v>14</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="14">
+        <f>I49</f>
         <v>14</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6986,14 +7024,24 @@
       <c r="E39">
         <v>48</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6">
-        <v>2</v>
-      </c>
-      <c r="I39" s="6"/>
+      <c r="F39" s="14">
+        <f>F48</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="14">
+        <f>G48</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="14">
+        <f>H48</f>
+        <v>2</v>
+      </c>
+      <c r="I39" s="14">
+        <f>I48</f>
+        <v>0</v>
+      </c>
       <c r="J39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7013,14 +7061,24 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6">
-        <v>2</v>
-      </c>
-      <c r="I40" s="6"/>
+      <c r="F40" s="14">
+        <f>F50</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="14">
+        <f>G50</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="14">
+        <f>H50</f>
+        <v>2</v>
+      </c>
+      <c r="I40" s="14">
+        <f>I50</f>
+        <v>0</v>
+      </c>
       <c r="J40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7045,7 +7103,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4096</v>
       </c>
     </row>
@@ -7078,7 +7136,7 @@
         <v>8</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -7111,7 +7169,7 @@
         <v>8</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -7136,7 +7194,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7161,7 +7219,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
     </row>
@@ -7186,7 +7244,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K46" s="11"/>
@@ -7220,7 +7278,7 @@
         <v>14</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K47" s="11"/>
@@ -7248,7 +7306,7 @@
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7281,7 +7339,7 @@
         <v>14</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7308,7 +7366,7 @@
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7341,7 +7399,7 @@
         <v>50</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
     </row>
@@ -7374,7 +7432,7 @@
         <v>256</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>376</v>
       </c>
     </row>
@@ -7399,7 +7457,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
@@ -7432,7 +7490,7 @@
         <v>4</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>

--- a/respart/SYSFW-NAVSS-ResAssg.xlsx
+++ b/respart/SYSFW-NAVSS-ResAssg.xlsx
@@ -5813,10 +5813,10 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -6265,19 +6265,19 @@
         <v>8</v>
       </c>
       <c r="F15" s="14">
-        <f>F27</f>
+        <f t="shared" ref="F15:I16" si="2">F27</f>
         <v>50</v>
       </c>
       <c r="G15" s="14">
-        <f>G27</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="H15" s="14">
-        <f>H27</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I15" s="14">
-        <f>I27</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="J15" s="1">
@@ -6302,19 +6302,19 @@
         <v>120</v>
       </c>
       <c r="F16" s="14">
-        <f>F28</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G16" s="14">
-        <f>G28</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H16" s="14">
-        <f>H28</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I16" s="14">
-        <f>I28</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J16" s="1">
@@ -6333,10 +6333,10 @@
         <v>27</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F17" s="14">
         <f>F26</f>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -6872,7 +6872,7 @@
         <v>24</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" ref="J34:J54" si="2">D34-SUM(F34:I34)</f>
+        <f t="shared" ref="J34:J54" si="3">D34-SUM(F34:I34)</f>
         <v>0</v>
       </c>
     </row>
@@ -6897,7 +6897,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6930,7 +6930,7 @@
         <v>60</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6967,7 +6967,7 @@
         <v>14</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7004,7 +7004,7 @@
         <v>14</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7103,7 +7103,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4096</v>
       </c>
     </row>
@@ -7136,7 +7136,7 @@
         <v>8</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7169,7 +7169,7 @@
         <v>8</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7194,7 +7194,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
     </row>
@@ -7244,7 +7244,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K46" s="11"/>
@@ -7278,7 +7278,7 @@
         <v>14</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K47" s="11"/>
@@ -7306,7 +7306,7 @@
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7339,7 +7339,7 @@
         <v>14</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7399,7 +7399,7 @@
         <v>50</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
     </row>
@@ -7432,7 +7432,7 @@
         <v>256</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>376</v>
       </c>
     </row>
@@ -7457,7 +7457,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
@@ -7490,7 +7490,7 @@
         <v>4</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/respart/SYSFW-NAVSS-ResAssg.xlsx
+++ b/respart/SYSFW-NAVSS-ResAssg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11988" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11988" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="j721e" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="156">
   <si>
     <t>Resource</t>
   </si>
@@ -50,10 +50,6 @@
 (for customer)</t>
   </si>
   <si>
-    <t>HOST_ID_C7X_1
-(TIDL)</t>
-  </si>
-  <si>
     <t>HOST_ID_C6X_0_1
 (Radio)</t>
   </si>
@@ -494,6 +490,16 @@
   <si>
     <t>Ideally 72 for R50_0 and 8 for R50_1
 For flow sharing purpose, mark them as host_id_all</t>
+  </si>
+  <si>
+    <t>Use virtid only from 2 to 7</t>
+  </si>
+  <si>
+    <t>All outputs of the Main GPIO IR are NOT connected to all the CPUs, So it's unusable for some hosts. To fix this, further split the range such that the output can be allocated amongst a subset of HOST_IDs where this IR can be used (IR output is connected to the CPU of that host)</t>
+  </si>
+  <si>
+    <t>HOST_ID_C7X_0
+(TIDL)</t>
   </si>
 </sst>
 </file>
@@ -597,7 +603,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -642,6 +648,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -650,7 +665,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -693,6 +708,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
@@ -701,7 +725,143 @@
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="176">
+  <dxfs count="192">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2534,13 +2694,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -2567,10 +2727,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>3</v>
@@ -2591,36 +2751,36 @@
         <v>8</v>
       </c>
       <c r="L1" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="R1" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D2" s="5">
         <v>93</v>
@@ -2648,13 +2808,13 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="5">
         <v>93</v>
@@ -2682,13 +2842,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="5">
         <v>32</v>
@@ -2708,19 +2868,19 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q67" si="1">D4-SUM(F4:P4)</f>
+        <f t="shared" ref="Q4:Q71" si="1">D4-SUM(F4:P4)</f>
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="5">
         <v>64</v>
@@ -2750,13 +2910,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="5">
         <v>48</v>
@@ -2786,219 +2946,247 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="5">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="6">
+        <v>8</v>
+      </c>
+      <c r="I7" s="6">
+        <v>8</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
       <c r="Q7" s="1">
-        <f t="shared" si="1"/>
-        <v>64</v>
+        <f t="shared" ref="Q7:Q9" si="2">D7-SUM(F7:P7)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="J8" s="6">
+        <v>4</v>
+      </c>
+      <c r="K8" s="6">
+        <v>4</v>
+      </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="6">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="P8" s="6">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="17"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="5">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="6">
-        <v>128</v>
-      </c>
-      <c r="K9" s="6">
-        <v>128</v>
-      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
+      <c r="M9" s="6">
+        <v>4</v>
+      </c>
+      <c r="N9" s="6">
+        <v>4</v>
+      </c>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="17"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="5">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="F10" s="6">
+        <v>16</v>
+      </c>
+      <c r="G10" s="6">
+        <v>4</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="6">
+        <v>4</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
       <c r="Q10" s="1">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R10" s="17"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="5">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="6">
+        <v>128</v>
+      </c>
+      <c r="P11" s="6">
+        <v>128</v>
+      </c>
       <c r="Q11" s="1">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D12" s="5">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="6">
+        <v>128</v>
+      </c>
+      <c r="K12" s="6">
+        <v>128</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
       <c r="Q12" s="1">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D13" s="5">
-        <v>1024</v>
+        <v>48</v>
       </c>
       <c r="E13" s="5">
-        <v>20480</v>
+        <v>0</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -3013,186 +3201,170 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="1">
         <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D14" s="5">
+        <v>16</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="6">
+        <v>8</v>
+      </c>
+      <c r="I14" s="6">
+        <v>8</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="1">
+        <f t="shared" ref="Q14" si="3">D14-SUM(F14:P14)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="5">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5">
+        <v>16</v>
+      </c>
+      <c r="F15" s="6">
+        <v>4</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="6">
+        <v>2</v>
+      </c>
+      <c r="K15" s="6">
+        <v>2</v>
+      </c>
+      <c r="L15" s="6">
+        <v>2</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="6">
+        <v>2</v>
+      </c>
+      <c r="P15" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="18"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="5">
         <v>64</v>
       </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="1">
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="1">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="R16" s="16"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="5">
         <v>1024</v>
       </c>
-      <c r="E15" s="5">
-        <v>22528</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="1">
+      <c r="E17" s="5">
+        <v>20480</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="1">
         <f t="shared" si="1"/>
         <v>1024</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="5">
-        <v>218</v>
-      </c>
-      <c r="E16" s="5">
-        <v>38</v>
-      </c>
-      <c r="F16" s="6">
-        <v>86</v>
-      </c>
-      <c r="G16" s="6">
-        <v>32</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6">
-        <v>12</v>
-      </c>
-      <c r="K16" s="6">
-        <v>12</v>
-      </c>
-      <c r="L16" s="6">
-        <v>12</v>
-      </c>
-      <c r="M16" s="6">
-        <v>12</v>
-      </c>
-      <c r="N16" s="6">
-        <v>12</v>
-      </c>
-      <c r="O16" s="6">
-        <v>28</v>
-      </c>
-      <c r="P16" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q16" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="5">
-        <v>4570</v>
-      </c>
-      <c r="E17" s="5">
-        <v>38</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1024</v>
-      </c>
-      <c r="G17" s="6">
-        <v>512</v>
-      </c>
-      <c r="H17" s="6">
-        <v>32</v>
-      </c>
-      <c r="I17" s="6">
-        <v>32</v>
-      </c>
-      <c r="J17" s="6">
-        <v>256</v>
-      </c>
-      <c r="K17" s="6">
-        <v>256</v>
-      </c>
-      <c r="L17" s="6">
-        <v>256</v>
-      </c>
-      <c r="M17" s="6">
-        <v>256</v>
-      </c>
-      <c r="N17" s="6">
-        <v>256</v>
-      </c>
-      <c r="O17" s="6">
-        <v>512</v>
-      </c>
-      <c r="P17" s="6">
-        <v>256</v>
-      </c>
-      <c r="Q17" s="1">
-        <f t="shared" si="1"/>
-        <v>922</v>
-      </c>
+      <c r="R17" s="16"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D18" s="5">
         <v>64</v>
@@ -3200,59 +3372,37 @@
       <c r="E18" s="5">
         <v>0</v>
       </c>
-      <c r="F18" s="6">
-        <v>4</v>
-      </c>
-      <c r="G18" s="6">
-        <v>4</v>
-      </c>
-      <c r="H18" s="6">
-        <v>4</v>
-      </c>
-      <c r="I18" s="6">
-        <v>4</v>
-      </c>
-      <c r="J18" s="6">
-        <v>4</v>
-      </c>
-      <c r="K18" s="6">
-        <v>4</v>
-      </c>
-      <c r="L18" s="6">
-        <v>4</v>
-      </c>
-      <c r="M18" s="6">
-        <v>4</v>
-      </c>
-      <c r="N18" s="6">
-        <v>4</v>
-      </c>
-      <c r="O18" s="6">
-        <v>12</v>
-      </c>
-      <c r="P18" s="6">
-        <v>4</v>
-      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
       <c r="Q18" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D19" s="5">
-        <v>1</v>
+        <v>1024</v>
       </c>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>22528</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -3267,714 +3417,751 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D20" s="5">
-        <v>534</v>
+        <v>218</v>
       </c>
       <c r="E20" s="5">
-        <v>440</v>
+        <v>38</v>
       </c>
       <c r="F20" s="6">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="G20" s="6">
-        <v>40</v>
-      </c>
-      <c r="H20" s="6">
-        <v>6</v>
-      </c>
-      <c r="I20" s="6">
-        <v>6</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
       <c r="J20" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K20" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L20" s="6">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="M20" s="6">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="N20" s="6">
         <v>12</v>
       </c>
       <c r="O20" s="6">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c r="P20" s="6">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D21" s="5">
-        <v>124</v>
+        <v>4570</v>
       </c>
       <c r="E21" s="5">
-        <v>316</v>
-      </c>
-      <c r="F21" s="14">
-        <f>F34</f>
-        <v>36</v>
-      </c>
-      <c r="G21" s="14">
-        <f t="shared" ref="G21:P21" si="2">G34</f>
-        <v>20</v>
-      </c>
-      <c r="H21" s="14">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I21" s="14">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J21" s="14">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="K21" s="14">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="L21" s="14">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="M21" s="14">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="N21" s="14">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="O21" s="14">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="P21" s="14">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>38</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1024</v>
+      </c>
+      <c r="G21" s="6">
+        <v>512</v>
+      </c>
+      <c r="H21" s="6">
+        <v>32</v>
+      </c>
+      <c r="I21" s="6">
+        <v>32</v>
+      </c>
+      <c r="J21" s="6">
+        <v>256</v>
+      </c>
+      <c r="K21" s="6">
+        <v>256</v>
+      </c>
+      <c r="L21" s="6">
+        <v>256</v>
+      </c>
+      <c r="M21" s="6">
+        <v>256</v>
+      </c>
+      <c r="N21" s="6">
+        <v>256</v>
+      </c>
+      <c r="O21" s="6">
+        <v>512</v>
+      </c>
+      <c r="P21" s="6">
+        <v>256</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>152</v>
+        <v>922</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D22" s="5">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="E22" s="5">
-        <v>16</v>
-      </c>
-      <c r="F22" s="14">
-        <f>F37</f>
-        <v>36</v>
-      </c>
-      <c r="G22" s="14">
-        <f t="shared" ref="G22:P22" si="3">G37</f>
-        <v>20</v>
-      </c>
-      <c r="H22" s="14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I22" s="14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="J22" s="14">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="K22" s="14">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="L22" s="14">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="M22" s="14">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="N22" s="14">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="O22" s="14">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="P22" s="14">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>4</v>
+      </c>
+      <c r="G22" s="6">
+        <v>4</v>
+      </c>
+      <c r="H22" s="6">
+        <v>4</v>
+      </c>
+      <c r="I22" s="6">
+        <v>4</v>
+      </c>
+      <c r="J22" s="6">
+        <v>4</v>
+      </c>
+      <c r="K22" s="6">
+        <v>4</v>
+      </c>
+      <c r="L22" s="6">
+        <v>4</v>
+      </c>
+      <c r="M22" s="6">
+        <v>4</v>
+      </c>
+      <c r="N22" s="6">
+        <v>4</v>
+      </c>
+      <c r="O22" s="6">
+        <v>12</v>
+      </c>
+      <c r="P22" s="6">
+        <v>4</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="R22" s="11" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="12">
-        <v>160</v>
-      </c>
-      <c r="E23" s="5">
-        <v>140</v>
-      </c>
-      <c r="F23" s="14">
-        <f t="shared" ref="F23:N23" si="4">F38</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="14">
+      <c r="D24" s="5">
+        <v>534</v>
+      </c>
+      <c r="E24" s="5">
+        <v>440</v>
+      </c>
+      <c r="F24" s="6">
+        <v>150</v>
+      </c>
+      <c r="G24" s="6">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6">
+        <v>6</v>
+      </c>
+      <c r="I24" s="6">
+        <v>6</v>
+      </c>
+      <c r="J24" s="6">
+        <v>10</v>
+      </c>
+      <c r="K24" s="6">
+        <v>10</v>
+      </c>
+      <c r="L24" s="6">
+        <v>32</v>
+      </c>
+      <c r="M24" s="6">
+        <v>38</v>
+      </c>
+      <c r="N24" s="6">
+        <v>12</v>
+      </c>
+      <c r="O24" s="6">
+        <v>182</v>
+      </c>
+      <c r="P24" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="5">
+        <v>124</v>
+      </c>
+      <c r="E25" s="5">
+        <v>316</v>
+      </c>
+      <c r="F25" s="14">
+        <f>F38</f>
+        <v>36</v>
+      </c>
+      <c r="G25" s="14">
+        <f t="shared" ref="G25:P25" si="4">G38</f>
+        <v>20</v>
+      </c>
+      <c r="H25" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="14">
+        <v>2</v>
+      </c>
+      <c r="I25" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="14">
+        <v>2</v>
+      </c>
+      <c r="J25" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="14">
+        <v>6</v>
+      </c>
+      <c r="K25" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="14">
+        <v>6</v>
+      </c>
+      <c r="L25" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="14">
+        <v>6</v>
+      </c>
+      <c r="M25" s="14">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="M23" s="14">
+      <c r="N25" s="14">
         <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O25" s="14">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="P25" s="14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="5">
+        <v>124</v>
+      </c>
+      <c r="E26" s="5">
+        <v>16</v>
+      </c>
+      <c r="F26" s="14">
+        <f>F41</f>
+        <v>36</v>
+      </c>
+      <c r="G26" s="14">
+        <f t="shared" ref="G26:P26" si="5">G41</f>
+        <v>20</v>
+      </c>
+      <c r="H26" s="14">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I26" s="14">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J26" s="14">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="N23" s="14">
-        <f t="shared" si="4"/>
+      <c r="K26" s="14">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="O23" s="14">
-        <f>O38</f>
-        <v>132</v>
-      </c>
-      <c r="P23" s="14">
-        <f t="shared" ref="P23" si="5">P38</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1">
+      <c r="L26" s="14">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="M26" s="14">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="N26" s="14">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="O26" s="14">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="P26" s="14">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="Q26" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="12">
-        <v>12</v>
-      </c>
-      <c r="E24" s="5">
-        <v>304</v>
-      </c>
-      <c r="F24" s="14">
-        <f>F35</f>
-        <v>4</v>
-      </c>
-      <c r="G24" s="14">
-        <f t="shared" ref="G24:P24" si="6">G35</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="14">
+        <v>2</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="12">
+        <v>160</v>
+      </c>
+      <c r="E27" s="5">
+        <v>140</v>
+      </c>
+      <c r="F27" s="14">
+        <f t="shared" ref="F27:N27" si="6">F42</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I24" s="14">
+      <c r="H27" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J24" s="14">
+      <c r="I27" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K24" s="14">
+      <c r="J27" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L24" s="14">
+      <c r="K27" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M24" s="14">
+      <c r="L27" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="14">
+        <v>16</v>
+      </c>
+      <c r="M27" s="14">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="P24" s="14">
+      <c r="N27" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1">
+        <v>6</v>
+      </c>
+      <c r="O27" s="14">
+        <f>O42</f>
+        <v>132</v>
+      </c>
+      <c r="P27" s="14">
+        <f t="shared" ref="P27" si="7">P42</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="5">
-        <v>4</v>
-      </c>
-      <c r="E25" s="5">
-        <v>300</v>
-      </c>
-      <c r="F25" s="14">
-        <f>F36</f>
-        <v>2</v>
-      </c>
-      <c r="G25" s="14">
-        <f t="shared" ref="G25:P25" si="7">G36</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="14">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="P25" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D28" s="12">
         <v>12</v>
       </c>
-      <c r="E26" s="5">
-        <v>4</v>
-      </c>
-      <c r="F26" s="14">
+      <c r="E28" s="5">
+        <v>304</v>
+      </c>
+      <c r="F28" s="14">
         <f>F39</f>
         <v>4</v>
       </c>
-      <c r="G26" s="14">
-        <f t="shared" ref="G26:P26" si="8">G39</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="14">
+      <c r="G28" s="14">
+        <f t="shared" ref="G28:P28" si="8">G39</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I28" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J28" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K28" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L28" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M28" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N28" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O28" s="14">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P28" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="5">
-        <v>4</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="14">
-        <f>F40</f>
-        <v>2</v>
-      </c>
-      <c r="G27" s="14">
-        <f t="shared" ref="G27:P27" si="9">G40</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="14">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="P27" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="5">
-        <v>4096</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
       <c r="Q28" s="1">
         <f t="shared" si="1"/>
-        <v>4096</v>
+        <v>2</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D29" s="5">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6">
-        <v>3</v>
-      </c>
-      <c r="G29" s="6">
-        <v>2</v>
-      </c>
-      <c r="H29" s="6">
-        <v>1</v>
-      </c>
-      <c r="I29" s="6">
-        <v>1</v>
-      </c>
-      <c r="J29" s="6">
-        <v>3</v>
-      </c>
-      <c r="K29" s="6">
-        <v>3</v>
-      </c>
-      <c r="L29" s="6">
-        <v>3</v>
-      </c>
-      <c r="M29" s="6">
-        <v>3</v>
-      </c>
-      <c r="N29" s="6">
-        <v>3</v>
-      </c>
-      <c r="O29" s="6">
-        <v>6</v>
-      </c>
-      <c r="P29" s="6">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="F29" s="14">
+        <f>F40</f>
+        <v>2</v>
+      </c>
+      <c r="G29" s="14">
+        <f t="shared" ref="G29:P29" si="9">G40</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="14">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="P29" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="Q29" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D30" s="5">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="E30" s="5">
-        <v>140</v>
-      </c>
-      <c r="F30" s="6">
-        <v>16</v>
-      </c>
-      <c r="G30" s="6">
-        <v>16</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="F30" s="14">
+        <f>F43</f>
+        <v>4</v>
+      </c>
+      <c r="G30" s="14">
+        <f t="shared" ref="G30:P30" si="10">G43</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="14">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="P30" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Q30" s="1">
         <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="R30" s="15" t="s">
-        <v>153</v>
+        <v>2</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D31" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
+      <c r="F31" s="14">
+        <f>F44</f>
+        <v>2</v>
+      </c>
+      <c r="G31" s="14">
+        <f t="shared" ref="G31:P31" si="11">G44</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="14">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="P31" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="Q31" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R31" s="11" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D32" s="5">
-        <v>1024</v>
+        <v>6</v>
       </c>
       <c r="E32" s="5">
-        <v>49152</v>
-      </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="F32" s="13">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -3986,114 +4173,122 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="1">
         <f t="shared" si="1"/>
-        <v>1024</v>
+        <v>4</v>
+      </c>
+      <c r="R32" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D33" s="5">
+        <v>32</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>3</v>
+      </c>
+      <c r="G33" s="6">
+        <v>2</v>
+      </c>
+      <c r="H33" s="6">
         <v>1</v>
       </c>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
+      <c r="I33" s="6">
+        <v>1</v>
+      </c>
+      <c r="J33" s="6">
+        <v>3</v>
+      </c>
+      <c r="K33" s="6">
+        <v>3</v>
+      </c>
+      <c r="L33" s="6">
+        <v>3</v>
+      </c>
+      <c r="M33" s="6">
+        <v>3</v>
+      </c>
+      <c r="N33" s="6">
+        <v>3</v>
+      </c>
+      <c r="O33" s="6">
+        <v>6</v>
+      </c>
+      <c r="P33" s="6">
+        <v>3</v>
+      </c>
       <c r="Q33" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D34" s="5">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="E34" s="5">
+        <v>140</v>
+      </c>
+      <c r="F34" s="6">
         <v>16</v>
       </c>
-      <c r="F34" s="6">
-        <v>36</v>
-      </c>
       <c r="G34" s="6">
-        <v>20</v>
-      </c>
-      <c r="H34" s="6">
-        <v>2</v>
-      </c>
-      <c r="I34" s="6">
-        <v>2</v>
-      </c>
-      <c r="J34" s="6">
-        <v>6</v>
-      </c>
-      <c r="K34" s="6">
-        <v>6</v>
-      </c>
-      <c r="L34" s="6">
-        <v>6</v>
-      </c>
-      <c r="M34" s="6">
         <v>16</v>
       </c>
-      <c r="N34" s="6">
-        <v>8</v>
-      </c>
-      <c r="O34" s="6">
-        <v>20</v>
-      </c>
-      <c r="P34" s="6">
-        <v>2</v>
-      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
       <c r="Q34" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="R34" s="15" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D35" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E35" s="5">
-        <v>4</v>
-      </c>
-      <c r="F35" s="6">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -4102,34 +4297,30 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="6">
-        <v>6</v>
-      </c>
+      <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D36" s="5">
-        <v>4</v>
+        <v>1024</v>
       </c>
       <c r="E36" s="5">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6">
-        <v>2</v>
-      </c>
+        <v>49152</v>
+      </c>
+      <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -4138,104 +4329,94 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
-      <c r="O36" s="6">
-        <v>2</v>
-      </c>
+      <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D37" s="5">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="E37" s="5">
-        <v>16</v>
-      </c>
-      <c r="F37" s="6">
-        <v>36</v>
-      </c>
-      <c r="G37" s="6">
-        <v>20</v>
-      </c>
-      <c r="H37" s="6">
-        <v>2</v>
-      </c>
-      <c r="I37" s="6">
-        <v>2</v>
-      </c>
-      <c r="J37" s="6">
-        <v>6</v>
-      </c>
-      <c r="K37" s="6">
-        <v>6</v>
-      </c>
-      <c r="L37" s="6">
-        <v>6</v>
-      </c>
-      <c r="M37" s="6">
-        <v>16</v>
-      </c>
-      <c r="N37" s="6">
-        <v>8</v>
-      </c>
-      <c r="O37" s="6">
-        <v>14</v>
-      </c>
-      <c r="P37" s="6">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
       <c r="Q37" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D38" s="5">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="E38" s="5">
-        <v>140</v>
-      </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="F38" s="6">
+        <v>36</v>
+      </c>
+      <c r="G38" s="6">
+        <v>20</v>
+      </c>
+      <c r="H38" s="6">
+        <v>2</v>
+      </c>
+      <c r="I38" s="6">
+        <v>2</v>
+      </c>
+      <c r="J38" s="6">
+        <v>6</v>
+      </c>
+      <c r="K38" s="6">
+        <v>6</v>
+      </c>
       <c r="L38" s="6">
+        <v>6</v>
+      </c>
+      <c r="M38" s="6">
         <v>16</v>
       </c>
-      <c r="M38" s="6">
-        <v>6</v>
-      </c>
       <c r="N38" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O38" s="6">
-        <v>132</v>
-      </c>
-      <c r="P38" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="P38" s="6">
+        <v>2</v>
+      </c>
       <c r="Q38" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4246,7 +4427,7 @@
         <v>74</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>18</v>
@@ -4282,7 +4463,7 @@
         <v>72</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>16</v>
@@ -4315,69 +4496,93 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D41" s="5">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="E41" s="5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F41" s="6">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="G41" s="6">
-        <v>50</v>
-      </c>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="H41" s="6">
+        <v>2</v>
+      </c>
+      <c r="I41" s="6">
+        <v>2</v>
+      </c>
+      <c r="J41" s="6">
+        <v>6</v>
+      </c>
+      <c r="K41" s="6">
+        <v>6</v>
+      </c>
+      <c r="L41" s="6">
+        <v>6</v>
+      </c>
+      <c r="M41" s="6">
+        <v>16</v>
+      </c>
+      <c r="N41" s="6">
+        <v>8</v>
+      </c>
+      <c r="O41" s="6">
+        <v>14</v>
+      </c>
+      <c r="P41" s="6">
+        <v>6</v>
+      </c>
       <c r="Q41" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D42" s="5">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="E42" s="5">
-        <v>196</v>
-      </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
+        <v>140</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6">
+        <v>16</v>
+      </c>
+      <c r="M42" s="6">
+        <v>6</v>
+      </c>
+      <c r="N42" s="6">
+        <v>6</v>
+      </c>
       <c r="O42" s="6">
-        <v>28</v>
-      </c>
-      <c r="P42" s="10"/>
+        <v>132</v>
+      </c>
+      <c r="P42" s="6"/>
       <c r="Q42" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4385,67 +4590,71 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D43" s="5">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E43" s="5">
-        <v>228</v>
-      </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="6">
-        <v>28</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F43" s="6">
+        <v>4</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6">
+        <v>6</v>
+      </c>
+      <c r="P43" s="6"/>
       <c r="Q43" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D44" s="5">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E44" s="5">
-        <v>260</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="6">
-        <v>28</v>
-      </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
+        <v>2</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6">
+        <v>2</v>
+      </c>
+      <c r="P44" s="6"/>
       <c r="Q44" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4453,32 +4662,34 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="5">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="E45" s="5">
-        <v>292</v>
-      </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="F45" s="6">
+        <v>100</v>
+      </c>
+      <c r="G45" s="6">
+        <v>32</v>
+      </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
-      <c r="K45" s="6">
-        <v>28</v>
-      </c>
-      <c r="L45" s="10"/>
-      <c r="M45" s="6">
-        <v>24</v>
-      </c>
+      <c r="K45" s="10"/>
+      <c r="L45" s="6">
+        <v>46</v>
+      </c>
+      <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
@@ -4489,19 +4700,19 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" s="5">
         <v>28</v>
       </c>
       <c r="E46" s="5">
-        <v>348</v>
+        <v>196</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -4510,290 +4721,234 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
-      <c r="M46" s="10">
-        <v>4</v>
-      </c>
-      <c r="N46" s="6">
-        <v>24</v>
-      </c>
-      <c r="O46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="6">
+        <v>28</v>
+      </c>
       <c r="P46" s="10"/>
       <c r="Q46" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R46" s="11" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D47" s="5">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="E47" s="5">
-        <v>380</v>
-      </c>
-      <c r="F47" s="10">
-        <v>20</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="F47" s="10"/>
       <c r="G47" s="10"/>
-      <c r="H47" s="6">
-        <v>4</v>
-      </c>
-      <c r="I47" s="6">
-        <v>4</v>
-      </c>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
+      <c r="P47" s="6">
+        <v>28</v>
+      </c>
       <c r="Q47" s="1">
         <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="R47" s="11" t="s">
-        <v>118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D48" s="5">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="E48" s="5">
-        <v>8</v>
-      </c>
-      <c r="F48" s="6">
-        <v>32</v>
-      </c>
-      <c r="G48" s="6">
-        <v>16</v>
-      </c>
-      <c r="H48" s="6">
-        <v>64</v>
-      </c>
-      <c r="I48" s="6">
-        <v>4</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
       <c r="J48" s="6">
-        <v>16</v>
-      </c>
-      <c r="K48" s="6">
-        <v>16</v>
-      </c>
-      <c r="L48" s="6">
-        <v>8</v>
-      </c>
-      <c r="M48" s="6">
-        <v>8</v>
-      </c>
-      <c r="N48" s="6">
-        <v>8</v>
-      </c>
-      <c r="O48" s="6">
-        <v>24</v>
-      </c>
-      <c r="P48" s="6">
-        <v>8</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
       <c r="Q48" s="1">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D49" s="5">
-        <v>1528</v>
+        <v>52</v>
       </c>
       <c r="E49" s="5">
-        <v>16392</v>
-      </c>
-      <c r="F49" s="6">
-        <v>128</v>
-      </c>
-      <c r="G49" s="6">
-        <v>128</v>
-      </c>
-      <c r="H49" s="6">
-        <v>256</v>
-      </c>
-      <c r="I49" s="6">
-        <v>64</v>
-      </c>
-      <c r="J49" s="6">
-        <v>128</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
       <c r="K49" s="6">
-        <v>128</v>
-      </c>
-      <c r="L49" s="6">
-        <v>64</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L49" s="10"/>
       <c r="M49" s="6">
-        <v>64</v>
-      </c>
-      <c r="N49" s="6">
-        <v>64</v>
-      </c>
-      <c r="O49" s="6">
-        <v>128</v>
-      </c>
-      <c r="P49" s="6">
-        <v>128</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
       <c r="Q49" s="1">
         <f t="shared" si="1"/>
-        <v>248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D50" s="5">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E50" s="5">
-        <v>1</v>
-      </c>
-      <c r="F50" s="6">
-        <v>4</v>
-      </c>
-      <c r="G50" s="6">
-        <v>4</v>
-      </c>
-      <c r="H50" s="6">
-        <v>4</v>
-      </c>
-      <c r="I50" s="6">
-        <v>4</v>
-      </c>
-      <c r="J50" s="6">
-        <v>4</v>
-      </c>
-      <c r="K50" s="6">
-        <v>4</v>
-      </c>
-      <c r="L50" s="6">
-        <v>4</v>
-      </c>
-      <c r="M50" s="6">
+        <v>348</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10">
         <v>4</v>
       </c>
       <c r="N50" s="6">
-        <v>4</v>
-      </c>
-      <c r="O50" s="6">
-        <v>16</v>
-      </c>
-      <c r="P50" s="6">
-        <v>4</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
       <c r="Q50" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="R50" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D51" s="5">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="E51" s="5">
-        <v>0</v>
-      </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
+        <v>380</v>
+      </c>
+      <c r="F51" s="10">
+        <v>20</v>
+      </c>
+      <c r="G51" s="10"/>
+      <c r="H51" s="6">
+        <v>4</v>
+      </c>
+      <c r="I51" s="6">
+        <v>4</v>
+      </c>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
       <c r="Q51" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="R51" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D52" s="5">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="E52" s="5">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="F52" s="6">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G52" s="6">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H52" s="6">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I52" s="6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J52" s="6">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K52" s="6">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L52" s="6">
         <v>8</v>
@@ -4805,391 +4960,423 @@
         <v>8</v>
       </c>
       <c r="O52" s="6">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P52" s="6">
         <v>8</v>
       </c>
       <c r="Q52" s="1">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="R52" s="11"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D53" s="5">
-        <v>43</v>
+        <v>1528</v>
       </c>
       <c r="E53" s="5">
-        <v>50</v>
-      </c>
-      <c r="F53" s="14">
-        <f>F63</f>
-        <v>12</v>
-      </c>
-      <c r="G53" s="14">
-        <v>6</v>
-      </c>
-      <c r="H53" s="14">
-        <v>5</v>
-      </c>
-      <c r="I53" s="14">
-        <v>2</v>
-      </c>
-      <c r="J53" s="14">
-        <v>2</v>
-      </c>
-      <c r="K53" s="14">
-        <v>2</v>
-      </c>
-      <c r="L53" s="14">
-        <v>2</v>
-      </c>
-      <c r="M53" s="14">
-        <v>2</v>
-      </c>
-      <c r="N53" s="14">
-        <v>2</v>
-      </c>
-      <c r="O53" s="14">
-        <v>3</v>
-      </c>
-      <c r="P53" s="14">
-        <v>2</v>
+        <v>16392</v>
+      </c>
+      <c r="F53" s="6">
+        <v>128</v>
+      </c>
+      <c r="G53" s="6">
+        <v>128</v>
+      </c>
+      <c r="H53" s="6">
+        <v>256</v>
+      </c>
+      <c r="I53" s="6">
+        <v>64</v>
+      </c>
+      <c r="J53" s="6">
+        <v>128</v>
+      </c>
+      <c r="K53" s="6">
+        <v>128</v>
+      </c>
+      <c r="L53" s="6">
+        <v>64</v>
+      </c>
+      <c r="M53" s="6">
+        <v>64</v>
+      </c>
+      <c r="N53" s="6">
+        <v>64</v>
+      </c>
+      <c r="O53" s="6">
+        <v>128</v>
+      </c>
+      <c r="P53" s="6">
+        <v>128</v>
       </c>
       <c r="Q53" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="R53" s="11" t="s">
-        <v>152</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D54" s="5">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E54" s="5">
-        <v>2</v>
-      </c>
-      <c r="F54" s="14">
-        <f>F65</f>
-        <v>12</v>
-      </c>
-      <c r="G54" s="14">
-        <v>6</v>
-      </c>
-      <c r="H54" s="14">
-        <v>5</v>
-      </c>
-      <c r="I54" s="14">
-        <v>2</v>
-      </c>
-      <c r="J54" s="14">
-        <v>2</v>
-      </c>
-      <c r="K54" s="14">
-        <v>2</v>
-      </c>
-      <c r="L54" s="14">
-        <v>2</v>
-      </c>
-      <c r="M54" s="14">
-        <v>2</v>
-      </c>
-      <c r="N54" s="14">
-        <v>2</v>
-      </c>
-      <c r="O54" s="14">
-        <v>3</v>
-      </c>
-      <c r="P54" s="14">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F54" s="6">
+        <v>4</v>
+      </c>
+      <c r="G54" s="6">
+        <v>4</v>
+      </c>
+      <c r="H54" s="6">
+        <v>4</v>
+      </c>
+      <c r="I54" s="6">
+        <v>4</v>
+      </c>
+      <c r="J54" s="6">
+        <v>4</v>
+      </c>
+      <c r="K54" s="6">
+        <v>4</v>
+      </c>
+      <c r="L54" s="6">
+        <v>4</v>
+      </c>
+      <c r="M54" s="6">
+        <v>4</v>
+      </c>
+      <c r="N54" s="6">
+        <v>4</v>
+      </c>
+      <c r="O54" s="6">
+        <v>16</v>
+      </c>
+      <c r="P54" s="6">
+        <v>4</v>
       </c>
       <c r="Q54" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R54" s="11" t="s">
-        <v>152</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D55" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" s="5">
-        <v>48</v>
-      </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14">
-        <v>2</v>
-      </c>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
       <c r="Q55" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R55" s="11" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D56" s="5">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="E56" s="5">
-        <v>0</v>
-      </c>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14">
-        <v>2</v>
-      </c>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
+        <v>96</v>
+      </c>
+      <c r="F56" s="6">
+        <v>20</v>
+      </c>
+      <c r="G56" s="6">
+        <v>8</v>
+      </c>
+      <c r="H56" s="6">
+        <v>32</v>
+      </c>
+      <c r="I56" s="6">
+        <v>12</v>
+      </c>
+      <c r="J56" s="6">
+        <v>8</v>
+      </c>
+      <c r="K56" s="6">
+        <v>8</v>
+      </c>
+      <c r="L56" s="6">
+        <v>8</v>
+      </c>
+      <c r="M56" s="6">
+        <v>8</v>
+      </c>
+      <c r="N56" s="6">
+        <v>8</v>
+      </c>
+      <c r="O56" s="6">
+        <v>16</v>
+      </c>
+      <c r="P56" s="6">
+        <v>8</v>
+      </c>
       <c r="Q56" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R56" s="11" t="s">
-        <v>152</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="R56" s="11"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D57" s="5">
-        <v>4096</v>
+        <v>43</v>
       </c>
       <c r="E57" s="5">
-        <v>0</v>
-      </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="F57" s="14">
+        <f>F67</f>
+        <v>12</v>
+      </c>
+      <c r="G57" s="14">
+        <v>6</v>
+      </c>
+      <c r="H57" s="14">
+        <v>5</v>
+      </c>
+      <c r="I57" s="14">
+        <v>2</v>
+      </c>
+      <c r="J57" s="14">
+        <v>2</v>
+      </c>
+      <c r="K57" s="14">
+        <v>2</v>
+      </c>
+      <c r="L57" s="14">
+        <v>2</v>
+      </c>
+      <c r="M57" s="14">
+        <v>2</v>
+      </c>
+      <c r="N57" s="14">
+        <v>2</v>
+      </c>
+      <c r="O57" s="14">
+        <v>3</v>
+      </c>
+      <c r="P57" s="14">
+        <v>2</v>
+      </c>
       <c r="Q57" s="1">
         <f t="shared" si="1"/>
-        <v>4096</v>
+        <v>3</v>
+      </c>
+      <c r="R57" s="11" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D58" s="5">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E58" s="5">
-        <v>0</v>
-      </c>
-      <c r="F58" s="6">
+        <v>2</v>
+      </c>
+      <c r="F58" s="14">
+        <f>F69</f>
+        <v>12</v>
+      </c>
+      <c r="G58" s="14">
+        <v>6</v>
+      </c>
+      <c r="H58" s="14">
+        <v>5</v>
+      </c>
+      <c r="I58" s="14">
+        <v>2</v>
+      </c>
+      <c r="J58" s="14">
+        <v>2</v>
+      </c>
+      <c r="K58" s="14">
+        <v>2</v>
+      </c>
+      <c r="L58" s="14">
+        <v>2</v>
+      </c>
+      <c r="M58" s="14">
+        <v>2</v>
+      </c>
+      <c r="N58" s="14">
+        <v>2</v>
+      </c>
+      <c r="O58" s="14">
         <v>3</v>
       </c>
-      <c r="G58" s="6">
-        <v>2</v>
-      </c>
-      <c r="H58" s="6">
-        <v>3</v>
-      </c>
-      <c r="I58" s="6">
-        <v>3</v>
-      </c>
-      <c r="J58" s="6">
-        <v>3</v>
-      </c>
-      <c r="K58" s="6">
-        <v>3</v>
-      </c>
-      <c r="L58" s="6">
-        <v>3</v>
-      </c>
-      <c r="M58" s="6">
-        <v>3</v>
-      </c>
-      <c r="N58" s="6">
-        <v>3</v>
-      </c>
-      <c r="O58" s="6">
-        <v>3</v>
-      </c>
-      <c r="P58" s="6">
-        <v>3</v>
+      <c r="P58" s="14">
+        <v>2</v>
       </c>
       <c r="Q58" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="R58" s="11" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="5">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="E59" s="5">
         <v>48</v>
       </c>
-      <c r="F59" s="6">
-        <v>8</v>
-      </c>
-      <c r="G59" s="6">
-        <v>4</v>
-      </c>
-      <c r="H59" s="6">
-        <v>8</v>
-      </c>
-      <c r="I59" s="6">
-        <v>4</v>
-      </c>
-      <c r="J59" s="6">
-        <v>4</v>
-      </c>
-      <c r="K59" s="6">
-        <v>4</v>
-      </c>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6">
-        <v>8</v>
-      </c>
-      <c r="P59" s="6">
-        <v>4</v>
-      </c>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14">
+        <v>2</v>
+      </c>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
       <c r="Q59" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="R59" s="11" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D60" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="5">
         <v>0</v>
       </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14">
+        <v>2</v>
+      </c>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
       <c r="Q60" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R60" s="11" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D61" s="5">
-        <v>256</v>
+        <v>6</v>
       </c>
       <c r="E61" s="5">
-        <v>56320</v>
-      </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="F61" s="6">
+        <v>1</v>
+      </c>
+      <c r="G61" s="6">
+        <v>1</v>
+      </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -5201,116 +5388,133 @@
       <c r="P61" s="6"/>
       <c r="Q61" s="1">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>4</v>
+      </c>
+      <c r="R61" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D62" s="5">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E62" s="5">
         <v>0</v>
       </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
+      <c r="F62" s="6">
+        <v>3</v>
+      </c>
+      <c r="G62" s="6">
+        <v>2</v>
+      </c>
+      <c r="H62" s="6">
+        <v>3</v>
+      </c>
+      <c r="I62" s="6">
+        <v>3</v>
+      </c>
+      <c r="J62" s="6">
+        <v>3</v>
+      </c>
+      <c r="K62" s="6">
+        <v>3</v>
+      </c>
+      <c r="L62" s="6">
+        <v>3</v>
+      </c>
+      <c r="M62" s="6">
+        <v>3</v>
+      </c>
+      <c r="N62" s="6">
+        <v>3</v>
+      </c>
+      <c r="O62" s="6">
+        <v>3</v>
+      </c>
+      <c r="P62" s="6">
+        <v>3</v>
+      </c>
       <c r="Q62" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D63" s="5">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E63" s="5">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="F63" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G63" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H63" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I63" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J63" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K63" s="6">
-        <v>2</v>
-      </c>
-      <c r="L63" s="6">
-        <v>2</v>
-      </c>
-      <c r="M63" s="6">
-        <v>2</v>
-      </c>
-      <c r="N63" s="6">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
       <c r="O63" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P63" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q63" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D64" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" s="5">
         <v>0</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="6">
-        <v>2</v>
-      </c>
+      <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -5321,84 +5525,60 @@
       <c r="P64" s="6"/>
       <c r="Q64" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D65" s="5">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="E65" s="5">
-        <v>2</v>
-      </c>
-      <c r="F65" s="6">
-        <v>12</v>
-      </c>
-      <c r="G65" s="6">
-        <v>6</v>
-      </c>
-      <c r="H65" s="6">
-        <v>5</v>
-      </c>
-      <c r="I65" s="6">
-        <v>2</v>
-      </c>
-      <c r="J65" s="6">
-        <v>2</v>
-      </c>
-      <c r="K65" s="6">
-        <v>2</v>
-      </c>
-      <c r="L65" s="6">
-        <v>2</v>
-      </c>
-      <c r="M65" s="6">
-        <v>2</v>
-      </c>
-      <c r="N65" s="6">
-        <v>2</v>
-      </c>
-      <c r="O65" s="6">
-        <v>3</v>
-      </c>
-      <c r="P65" s="6">
-        <v>2</v>
-      </c>
+        <v>56320</v>
+      </c>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
       <c r="Q65" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D66" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" s="5">
         <v>0</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="6">
-        <v>2</v>
-      </c>
+      <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -5409,271 +5589,507 @@
       <c r="P66" s="6"/>
       <c r="Q66" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D67" s="5">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E67" s="5">
-        <v>4</v>
-      </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="F67" s="6">
+        <v>12</v>
+      </c>
+      <c r="G67" s="6">
+        <v>6</v>
+      </c>
       <c r="H67" s="6">
-        <v>28</v>
-      </c>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="I67" s="6">
+        <v>2</v>
+      </c>
+      <c r="J67" s="6">
+        <v>2</v>
+      </c>
+      <c r="K67" s="6">
+        <v>2</v>
+      </c>
+      <c r="L67" s="6">
+        <v>2</v>
+      </c>
+      <c r="M67" s="6">
+        <v>2</v>
+      </c>
+      <c r="N67" s="6">
+        <v>2</v>
+      </c>
+      <c r="O67" s="6">
+        <v>3</v>
+      </c>
+      <c r="P67" s="6">
+        <v>2</v>
+      </c>
       <c r="Q67" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D68" s="5">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E68" s="5">
-        <v>36</v>
-      </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="6">
-        <v>28</v>
-      </c>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6">
+        <v>2</v>
+      </c>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="1">
-        <f t="shared" ref="Q68" si="10">D68-SUM(F68:P68)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="5">
+        <v>44</v>
+      </c>
+      <c r="E69" s="5">
+        <v>2</v>
+      </c>
+      <c r="F69" s="6">
+        <v>12</v>
+      </c>
+      <c r="G69" s="6">
+        <v>6</v>
+      </c>
+      <c r="H69" s="6">
+        <v>5</v>
+      </c>
+      <c r="I69" s="6">
+        <v>2</v>
+      </c>
+      <c r="J69" s="6">
+        <v>2</v>
+      </c>
+      <c r="K69" s="6">
+        <v>2</v>
+      </c>
+      <c r="L69" s="6">
+        <v>2</v>
+      </c>
+      <c r="M69" s="6">
+        <v>2</v>
+      </c>
+      <c r="N69" s="6">
+        <v>2</v>
+      </c>
+      <c r="O69" s="6">
+        <v>3</v>
+      </c>
+      <c r="P69" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q69" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="5">
+        <v>2</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6">
+        <v>2</v>
+      </c>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="5">
+        <v>28</v>
+      </c>
+      <c r="E71" s="5">
+        <v>4</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="6">
+        <v>28</v>
+      </c>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" s="5">
+        <v>28</v>
+      </c>
+      <c r="E72" s="5">
+        <v>36</v>
+      </c>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="6">
+        <v>28</v>
+      </c>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="1">
+        <f t="shared" ref="Q72" si="12">D72-SUM(F72:P72)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q26">
-    <cfRule type="cellIs" dxfId="175" priority="223" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="224" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="225" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="226" operator="greaterThan">
+  <mergeCells count="2">
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="R14:R15"/>
+  </mergeCells>
+  <conditionalFormatting sqref="Q30">
+    <cfRule type="cellIs" dxfId="191" priority="239" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="240" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="241" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="242" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q29">
-    <cfRule type="cellIs" dxfId="171" priority="219" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="220" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="221" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="222" operator="greaterThan">
+  <conditionalFormatting sqref="Q33">
+    <cfRule type="cellIs" dxfId="187" priority="235" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="236" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="237" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="238" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q30">
-    <cfRule type="cellIs" dxfId="167" priority="215" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="216" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="217" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="218" operator="greaterThan">
+  <conditionalFormatting sqref="Q34">
+    <cfRule type="cellIs" dxfId="183" priority="231" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="232" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="233" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="234" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q50">
-    <cfRule type="cellIs" dxfId="163" priority="67" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="68" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="69" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="70" operator="greaterThan">
+  <conditionalFormatting sqref="Q54">
+    <cfRule type="cellIs" dxfId="179" priority="83" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="84" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="85" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="86" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q44">
-    <cfRule type="cellIs" dxfId="159" priority="51" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="52" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="53" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="54" operator="greaterThan">
+  <conditionalFormatting sqref="Q48">
+    <cfRule type="cellIs" dxfId="175" priority="67" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="68" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="69" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="70" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q45">
-    <cfRule type="cellIs" dxfId="155" priority="55" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="56" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="57" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="58" operator="greaterThan">
+  <conditionalFormatting sqref="Q49">
+    <cfRule type="cellIs" dxfId="171" priority="71" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="72" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="73" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="74" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q51">
+    <cfRule type="cellIs" dxfId="167" priority="75" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="76" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="77" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="78" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q53">
+    <cfRule type="cellIs" dxfId="163" priority="79" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="80" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="81" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="82" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q47">
-    <cfRule type="cellIs" dxfId="151" priority="59" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="60" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="61" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="63" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="64" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="65" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="66" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q49">
-    <cfRule type="cellIs" dxfId="147" priority="63" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="64" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="65" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="66" operator="greaterThan">
+  <conditionalFormatting sqref="Q46">
+    <cfRule type="cellIs" dxfId="155" priority="59" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="60" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="61" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="62" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q69">
+    <cfRule type="cellIs" dxfId="151" priority="227" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="228" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="229" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="230" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q70">
+    <cfRule type="cellIs" dxfId="147" priority="223" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="224" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="225" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="226" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q6 Q10:Q13 Q15:Q72">
+    <cfRule type="cellIs" dxfId="143" priority="296" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="297" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="298" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="299" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q21 Q32 Q35:Q37">
+    <cfRule type="cellIs" dxfId="139" priority="243" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="244" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="245" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="246" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q43">
-    <cfRule type="cellIs" dxfId="143" priority="47" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="48" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="49" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="55" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="56" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="57" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="58" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q42">
-    <cfRule type="cellIs" dxfId="139" priority="43" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="44" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="45" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="51" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="52" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="53" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q65">
-    <cfRule type="cellIs" dxfId="135" priority="211" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="212" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="213" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="214" operator="greaterThan">
+  <conditionalFormatting sqref="Q41">
+    <cfRule type="cellIs" dxfId="127" priority="47" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="48" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="49" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q66">
-    <cfRule type="cellIs" dxfId="131" priority="207" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="208" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="209" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="210" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q68">
-    <cfRule type="cellIs" dxfId="127" priority="280" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="281" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="282" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="283" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q17 Q28 Q31:Q33">
-    <cfRule type="cellIs" dxfId="123" priority="227" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="228" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="229" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="230" operator="greaterThan">
+  <conditionalFormatting sqref="Q40">
+    <cfRule type="cellIs" dxfId="123" priority="43" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="44" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="45" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5691,115 +6107,115 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q38">
-    <cfRule type="cellIs" dxfId="115" priority="35" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="36" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="37" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="38" operator="greaterThan">
+  <conditionalFormatting sqref="Q50">
+    <cfRule type="cellIs" dxfId="115" priority="31" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="33" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q37">
-    <cfRule type="cellIs" dxfId="111" priority="31" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="33" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="34" operator="greaterThan">
+  <conditionalFormatting sqref="Q44">
+    <cfRule type="cellIs" dxfId="111" priority="27" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="28" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="29" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q36">
-    <cfRule type="cellIs" dxfId="107" priority="27" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="28" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="30" operator="greaterThan">
+  <conditionalFormatting sqref="Q45">
+    <cfRule type="cellIs" dxfId="107" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="24" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="25" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q35">
-    <cfRule type="cellIs" dxfId="103" priority="23" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="24" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="25" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="26" operator="greaterThan">
+  <conditionalFormatting sqref="Q52">
+    <cfRule type="cellIs" dxfId="103" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="21" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q46">
-    <cfRule type="cellIs" dxfId="99" priority="15" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="16" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="17" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="18" operator="greaterThan">
+  <conditionalFormatting sqref="Q7">
+    <cfRule type="cellIs" dxfId="99" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q40">
-    <cfRule type="cellIs" dxfId="95" priority="11" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="12" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="13" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="Q8">
+    <cfRule type="cellIs" dxfId="95" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="10" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q41">
-    <cfRule type="cellIs" dxfId="91" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="8" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="9" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="10" operator="greaterThan">
+  <conditionalFormatting sqref="Q9">
+    <cfRule type="cellIs" dxfId="91" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q48">
-    <cfRule type="cellIs" dxfId="87" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="4" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="6" operator="greaterThan">
+  <conditionalFormatting sqref="Q14">
+    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5812,11 +6228,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -5843,39 +6259,39 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="F1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>32</v>
@@ -5902,13 +6318,13 @@
     </row>
     <row r="3" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>64</v>
@@ -5931,13 +6347,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>48</v>
@@ -5960,13 +6376,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>32</v>
@@ -5989,13 +6405,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>136</v>
@@ -6022,13 +6438,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>64</v>
@@ -6047,13 +6463,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>1024</v>
@@ -6072,13 +6488,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>64</v>
@@ -6097,13 +6513,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>1024</v>
@@ -6122,13 +6538,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>63</v>
@@ -6155,13 +6571,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -6180,13 +6596,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>464</v>
@@ -6213,13 +6629,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>142</v>
@@ -6250,13 +6666,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <v>112</v>
@@ -6287,13 +6703,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16">
         <v>32</v>
@@ -6322,15 +6738,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -6359,15 +6775,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18">
         <v>7</v>
@@ -6396,40 +6812,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19">
-        <v>4096</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>32</v>
@@ -6454,15 +6877,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21">
         <v>150</v>
@@ -6487,15 +6910,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -6512,15 +6935,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23">
         <v>1024</v>
@@ -6537,15 +6960,15 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -6562,15 +6985,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25">
         <v>142</v>
@@ -6595,15 +7018,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26">
         <v>6</v>
@@ -6626,15 +7049,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27">
         <v>112</v>
@@ -6659,15 +7082,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28">
         <v>32</v>
@@ -6692,15 +7115,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29">
         <v>7</v>
@@ -6723,15 +7146,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30">
         <v>240</v>
@@ -6756,15 +7179,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31">
         <v>4592</v>
@@ -6789,15 +7212,15 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32">
         <v>28</v>
@@ -6818,13 +7241,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33">
         <v>28</v>
@@ -6845,13 +7268,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34">
         <v>64</v>
@@ -6878,13 +7301,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -6903,13 +7326,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36">
         <v>160</v>
@@ -6936,13 +7359,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37">
         <v>46</v>
@@ -6973,13 +7396,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38">
         <v>46</v>
@@ -7010,13 +7433,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -7047,13 +7470,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -7084,38 +7507,45 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D41">
-        <v>4096</v>
+        <v>6</v>
       </c>
       <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="1">
         <f t="shared" si="3"/>
-        <v>4096</v>
+        <v>4</v>
+      </c>
+      <c r="K41" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D42">
         <v>32</v>
@@ -7142,13 +7572,13 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43">
         <v>48</v>
@@ -7175,13 +7605,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -7200,13 +7630,13 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D45">
         <v>256</v>
@@ -7225,13 +7655,13 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -7251,13 +7681,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -7285,13 +7715,13 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -7312,13 +7742,13 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D49">
         <v>46</v>
@@ -7345,13 +7775,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -7372,13 +7802,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D51">
         <v>248</v>
@@ -7405,13 +7835,13 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D52">
         <v>1528</v>
@@ -7438,13 +7868,13 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D53">
         <v>40</v>
@@ -7463,13 +7893,13 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D54">
         <v>16</v>

--- a/respart/SYSFW-NAVSS-ResAssg.xlsx
+++ b/respart/SYSFW-NAVSS-ResAssg.xlsx
@@ -498,7 +498,7 @@
     <t>All outputs of the Main GPIO IR are NOT connected to all the CPUs, So it's unusable for some hosts. To fix this, further split the range such that the output can be allocated amongst a subset of HOST_IDs where this IR can be used (IR output is connected to the CPU of that host)</t>
   </si>
   <si>
-    <t>HOST_ID_C7X_0
+    <t>HOST_ID_C7X_1
 (TIDL)</t>
   </si>
 </sst>

--- a/respart/SYSFW-NAVSS-ResAssg.xlsx
+++ b/respart/SYSFW-NAVSS-ResAssg.xlsx
@@ -725,7 +725,75 @@
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="192">
+  <dxfs count="200">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2700,7 +2768,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -5842,380 +5910,380 @@
     <mergeCell ref="R14:R15"/>
   </mergeCells>
   <conditionalFormatting sqref="Q30">
-    <cfRule type="cellIs" dxfId="191" priority="239" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="240" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="241" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="242" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="199" priority="239" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="240" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="241" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="242" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q33">
-    <cfRule type="cellIs" dxfId="187" priority="235" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="236" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="237" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="238" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="195" priority="235" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="236" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="237" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="238" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34">
-    <cfRule type="cellIs" dxfId="183" priority="231" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="232" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="233" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="234" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="191" priority="231" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="232" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="233" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="234" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q54">
-    <cfRule type="cellIs" dxfId="179" priority="83" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="84" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="85" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="187" priority="83" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="84" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="85" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="86" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q48">
-    <cfRule type="cellIs" dxfId="175" priority="67" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="68" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="69" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="183" priority="67" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="68" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="69" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="70" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q49">
-    <cfRule type="cellIs" dxfId="171" priority="71" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="72" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="73" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="74" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="179" priority="71" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="72" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="73" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="74" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q51">
-    <cfRule type="cellIs" dxfId="167" priority="75" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="76" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="77" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="78" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="175" priority="75" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="76" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="77" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="78" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q53">
-    <cfRule type="cellIs" dxfId="163" priority="79" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="80" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="81" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="82" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="79" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="80" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="81" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="82" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q47">
-    <cfRule type="cellIs" dxfId="159" priority="63" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="64" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="65" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="167" priority="63" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="64" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="65" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="66" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q46">
-    <cfRule type="cellIs" dxfId="155" priority="59" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="60" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="61" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="163" priority="59" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="60" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="61" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="62" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q69">
-    <cfRule type="cellIs" dxfId="151" priority="227" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="228" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="229" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="230" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="227" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="228" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="229" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="230" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q70">
-    <cfRule type="cellIs" dxfId="147" priority="223" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="224" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="225" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="226" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="223" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="224" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="225" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="226" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q6 Q10:Q13 Q15:Q72">
-    <cfRule type="cellIs" dxfId="143" priority="296" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="297" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="298" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="299" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="296" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="297" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="298" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="299" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q21 Q32 Q35:Q37">
-    <cfRule type="cellIs" dxfId="139" priority="243" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="244" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="245" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="246" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="243" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="244" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="245" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="246" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q43">
-    <cfRule type="cellIs" dxfId="135" priority="55" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="56" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="57" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="55" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="56" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="57" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="58" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q42">
-    <cfRule type="cellIs" dxfId="131" priority="51" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="52" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="53" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="51" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="52" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="53" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q41">
-    <cfRule type="cellIs" dxfId="127" priority="47" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="48" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="49" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="47" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="48" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="49" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q40">
-    <cfRule type="cellIs" dxfId="123" priority="43" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="44" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="45" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="43" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="44" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="45" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q39">
-    <cfRule type="cellIs" dxfId="119" priority="39" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="40" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="41" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="39" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="40" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="41" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q50">
-    <cfRule type="cellIs" dxfId="115" priority="31" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="33" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="31" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="33" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q44">
-    <cfRule type="cellIs" dxfId="111" priority="27" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="28" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="27" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="28" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="29" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q45">
-    <cfRule type="cellIs" dxfId="107" priority="23" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="24" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="25" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="24" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="25" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q52">
-    <cfRule type="cellIs" dxfId="103" priority="19" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="20" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="21" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="21" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7">
-    <cfRule type="cellIs" dxfId="99" priority="13" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="15" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="cellIs" dxfId="95" priority="9" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="10" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="11" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="10" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="cellIs" dxfId="91" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="6" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7926,296 +7994,296 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="83" priority="81" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="82" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="84" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="81" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="82" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="83" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="84" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="78" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="77" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="78" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="79" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="80" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="74" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="76" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="73" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="74" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="75" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="76" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="cellIs" dxfId="71" priority="61" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="62" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="63" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="61" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="62" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="63" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="64" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="67" priority="45" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="46" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="47" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="45" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="46" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="47" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="cellIs" dxfId="63" priority="49" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="50" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="51" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="49" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="50" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="51" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="cellIs" dxfId="59" priority="53" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="54" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="53" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="54" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="55" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="58" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="57" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="58" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="cellIs" dxfId="51" priority="41" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="42" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="41" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="42" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="43" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="38" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="37" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="38" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="39" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J54">
-    <cfRule type="cellIs" dxfId="43" priority="89" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="90" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="91" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="92" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="89" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="90" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="91" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="92" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17 J28 J31:J33">
-    <cfRule type="cellIs" dxfId="39" priority="85" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="86" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="87" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="88" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="85" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="86" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="87" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="88" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="34" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="30" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="25" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="26" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/respart/SYSFW-NAVSS-ResAssg.xlsx
+++ b/respart/SYSFW-NAVSS-ResAssg.xlsx
@@ -725,75 +725,7 @@
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="200">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFDCE6F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFDCE6F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFDCE6F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFDCE6F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="192">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2768,7 +2700,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -5910,380 +5842,380 @@
     <mergeCell ref="R14:R15"/>
   </mergeCells>
   <conditionalFormatting sqref="Q30">
-    <cfRule type="cellIs" dxfId="199" priority="239" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="240" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="241" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="242" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="191" priority="239" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="240" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="241" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="242" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q33">
-    <cfRule type="cellIs" dxfId="195" priority="235" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="236" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="237" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="238" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="187" priority="235" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="236" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="237" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="238" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34">
-    <cfRule type="cellIs" dxfId="191" priority="231" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="232" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="233" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="234" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="183" priority="231" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="232" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="233" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="234" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q54">
-    <cfRule type="cellIs" dxfId="187" priority="83" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="84" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="85" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="179" priority="83" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="84" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="85" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="86" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q48">
-    <cfRule type="cellIs" dxfId="183" priority="67" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="68" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="69" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="175" priority="67" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="68" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="69" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="70" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q49">
-    <cfRule type="cellIs" dxfId="179" priority="71" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="72" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="73" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="74" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="71" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="72" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="73" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="74" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q51">
-    <cfRule type="cellIs" dxfId="175" priority="75" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="76" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="77" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="78" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="167" priority="75" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="76" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="77" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="78" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q53">
-    <cfRule type="cellIs" dxfId="171" priority="79" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="80" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="81" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="82" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="163" priority="79" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="80" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="81" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="82" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q47">
-    <cfRule type="cellIs" dxfId="167" priority="63" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="64" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="65" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="63" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="64" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="65" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="66" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q46">
-    <cfRule type="cellIs" dxfId="163" priority="59" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="60" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="61" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="59" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="60" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="61" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="62" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q69">
-    <cfRule type="cellIs" dxfId="159" priority="227" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="228" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="229" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="230" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="227" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="228" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="229" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="230" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q70">
-    <cfRule type="cellIs" dxfId="155" priority="223" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="224" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="225" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="226" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="223" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="224" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="225" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="226" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q6 Q10:Q13 Q15:Q72">
-    <cfRule type="cellIs" dxfId="151" priority="296" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="297" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="298" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="299" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="296" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="297" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="298" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="299" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q21 Q32 Q35:Q37">
-    <cfRule type="cellIs" dxfId="147" priority="243" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="244" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="245" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="246" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="243" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="244" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="245" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="246" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q43">
-    <cfRule type="cellIs" dxfId="143" priority="55" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="56" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="57" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="55" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="56" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="57" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="58" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q42">
-    <cfRule type="cellIs" dxfId="139" priority="51" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="52" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="53" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="51" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="52" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="53" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q41">
-    <cfRule type="cellIs" dxfId="135" priority="47" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="48" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="49" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="47" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="48" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="49" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q40">
-    <cfRule type="cellIs" dxfId="131" priority="43" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="44" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="45" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="43" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="44" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="45" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q39">
-    <cfRule type="cellIs" dxfId="127" priority="39" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="40" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="41" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="39" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="40" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="41" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q50">
-    <cfRule type="cellIs" dxfId="123" priority="31" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="33" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="31" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="33" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q44">
-    <cfRule type="cellIs" dxfId="119" priority="27" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="28" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="27" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="28" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="29" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q45">
-    <cfRule type="cellIs" dxfId="115" priority="23" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="24" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="25" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="24" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="25" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q52">
-    <cfRule type="cellIs" dxfId="111" priority="19" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="20" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="21" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="21" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7">
-    <cfRule type="cellIs" dxfId="107" priority="13" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="15" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="cellIs" dxfId="103" priority="9" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="10" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="11" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="10" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="cellIs" dxfId="99" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="6" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="95" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7994,296 +7926,296 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="91" priority="81" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="82" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="83" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="84" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="81" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="82" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="84" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="cellIs" dxfId="87" priority="77" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="78" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="79" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="78" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="80" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="83" priority="73" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="74" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="75" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="76" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="76" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="cellIs" dxfId="79" priority="61" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="62" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="63" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="61" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="62" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="63" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="64" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="75" priority="45" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="46" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="47" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="45" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="46" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="47" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="cellIs" dxfId="71" priority="49" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="50" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="51" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="49" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="50" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="51" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="cellIs" dxfId="67" priority="53" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="54" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="55" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="53" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="54" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="cellIs" dxfId="63" priority="57" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="58" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="58" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="60" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="cellIs" dxfId="59" priority="41" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="42" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="43" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="41" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="42" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="cellIs" dxfId="55" priority="37" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="38" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="39" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="38" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J54">
-    <cfRule type="cellIs" dxfId="51" priority="89" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="90" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="91" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="92" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="89" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="90" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="91" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="92" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17 J28 J31:J33">
-    <cfRule type="cellIs" dxfId="47" priority="85" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="86" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="87" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="88" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="85" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="86" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="87" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="88" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="34" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="30" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="cellIs" dxfId="35" priority="25" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="26" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
